--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912572000386</v>
+        <v>0.3711912571998255</v>
       </c>
       <c r="E2">
-        <v>0.4551437936525957</v>
+        <v>0.455143793652681</v>
       </c>
       <c r="F2">
-        <v>11.99406617202123</v>
+        <v>11.99406617202126</v>
       </c>
       <c r="G2">
-        <v>10.1690367836475</v>
+        <v>10.16903678364744</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6122084013271163</v>
+        <v>0.6122084013271234</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783422584</v>
+        <v>0.3031411783422868</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407577</v>
+        <v>0.3720791904407506</v>
       </c>
       <c r="F3">
         <v>9.851954343315896</v>
       </c>
       <c r="G3">
-        <v>8.348272532539539</v>
+        <v>8.348272532539511</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5000557022850884</v>
+        <v>0.5000557022851169</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440268293</v>
+        <v>0.2658125440266161</v>
       </c>
       <c r="E4">
-        <v>0.3265830756140815</v>
+        <v>0.3265830756140744</v>
       </c>
       <c r="F4">
-        <v>8.67073669978916</v>
+        <v>8.670736699789188</v>
       </c>
       <c r="G4">
         <v>7.34453898035693</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4386000163670687</v>
+        <v>0.4386000163670047</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110684702</v>
+        <v>0.2513928110682571</v>
       </c>
       <c r="E5">
-        <v>0.3090281261873997</v>
+        <v>0.3090281261874424</v>
       </c>
       <c r="F5">
         <v>8.213491779935566</v>
       </c>
       <c r="G5">
-        <v>6.956039270655452</v>
+        <v>6.956039270655481</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -570,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2490390561390257</v>
+        <v>0.2490390561393525</v>
       </c>
       <c r="E6">
-        <v>0.3061638540697729</v>
+        <v>0.3061638540697942</v>
       </c>
       <c r="F6">
-        <v>8.138810835529711</v>
+        <v>8.138810835529824</v>
       </c>
       <c r="G6">
-        <v>6.89258822127843</v>
+        <v>6.892588221278544</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4110085586135099</v>
+        <v>0.4110085586135526</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.265615206440998</v>
+        <v>0.265615206441197</v>
       </c>
       <c r="E7">
-        <v>0.3263427477397087</v>
+        <v>0.3263427477396519</v>
       </c>
       <c r="F7">
-        <v>8.664482471305661</v>
+        <v>8.664482471305632</v>
       </c>
       <c r="G7">
         <v>7.339224913022093</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4382753114088374</v>
+        <v>0.4382753114087663</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769849606</v>
+        <v>0.3465542769849179</v>
       </c>
       <c r="E8">
-        <v>0.4250578330698218</v>
+        <v>0.4250578330698076</v>
       </c>
       <c r="F8">
-        <v>11.22040029061361</v>
+        <v>11.22040029061375</v>
       </c>
       <c r="G8">
-        <v>9.511344297591506</v>
+        <v>9.511344297591592</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5715922063823839</v>
+        <v>0.5715922063823555</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -684,22 +684,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E9">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F9">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G9">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E10">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F10">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G10">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E11">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F11">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G11">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E12">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F12">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G12">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E13">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F13">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G13">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E14">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F14">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G14">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E15">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F15">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G15">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598007095</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E16">
-        <v>0.700678735558995</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F16">
-        <v>18.2062053614182</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G16">
-        <v>15.45485817670476</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9436442594476873</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.8283333644473316</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E17">
-        <v>1.011900856510863</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F17">
-        <v>25.7650879708965</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G17">
-        <v>21.90411421337598</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.364212599649683</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7439910364903852</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E18">
-        <v>0.9096919231372453</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F18">
-        <v>23.32803266299914</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G18">
-        <v>19.82209182353813</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.22599724610312</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.7224291772872533</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E19">
-        <v>0.8835122146898726</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F19">
-        <v>22.69617710014103</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G19">
-        <v>19.28275328945574</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.190611709018697</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E20">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F20">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G20">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1140,22 +1140,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E21">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F21">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G21">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E22">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F22">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G22">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1216,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E23">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F23">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G23">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E24">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F24">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G24">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.8509618447483263</v>
+        <v>0.5722452598007806</v>
       </c>
       <c r="E25">
-        <v>1.039267381768433</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F25">
-        <v>26.40905441971267</v>
+        <v>18.20620536141837</v>
       </c>
       <c r="G25">
-        <v>22.45478953207945</v>
+        <v>15.45485817670487</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.401238633258785</v>
+        <v>0.9436442594476659</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912571998255</v>
+        <v>0.3711912572000386</v>
       </c>
       <c r="E2">
-        <v>0.455143793652681</v>
+        <v>0.4551437936525957</v>
       </c>
       <c r="F2">
-        <v>11.99406617202126</v>
+        <v>11.99406617202123</v>
       </c>
       <c r="G2">
-        <v>10.16903678364744</v>
+        <v>10.1690367836475</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6122084013271234</v>
+        <v>0.6122084013271163</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783422868</v>
+        <v>0.3031411783422584</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407506</v>
+        <v>0.3720791904407577</v>
       </c>
       <c r="F3">
         <v>9.851954343315896</v>
       </c>
       <c r="G3">
-        <v>8.348272532539511</v>
+        <v>8.348272532539539</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5000557022851169</v>
+        <v>0.5000557022850884</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440266161</v>
+        <v>0.2658125440268293</v>
       </c>
       <c r="E4">
-        <v>0.3265830756140744</v>
+        <v>0.3265830756140815</v>
       </c>
       <c r="F4">
-        <v>8.670736699789188</v>
+        <v>8.67073669978916</v>
       </c>
       <c r="G4">
         <v>7.34453898035693</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4386000163670047</v>
+        <v>0.4386000163670687</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110682571</v>
+        <v>0.2513928110684702</v>
       </c>
       <c r="E5">
-        <v>0.3090281261874424</v>
+        <v>0.3090281261873997</v>
       </c>
       <c r="F5">
         <v>8.213491779935566</v>
       </c>
       <c r="G5">
-        <v>6.956039270655481</v>
+        <v>6.956039270655452</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -570,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2490390561393525</v>
+        <v>0.2490390561390257</v>
       </c>
       <c r="E6">
-        <v>0.3061638540697942</v>
+        <v>0.3061638540697729</v>
       </c>
       <c r="F6">
-        <v>8.138810835529824</v>
+        <v>8.138810835529711</v>
       </c>
       <c r="G6">
-        <v>6.892588221278544</v>
+        <v>6.89258822127843</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4110085586135526</v>
+        <v>0.4110085586135099</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.265615206441197</v>
+        <v>0.265615206440998</v>
       </c>
       <c r="E7">
-        <v>0.3263427477396519</v>
+        <v>0.3263427477397087</v>
       </c>
       <c r="F7">
-        <v>8.664482471305632</v>
+        <v>8.664482471305661</v>
       </c>
       <c r="G7">
         <v>7.339224913022093</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4382753114087663</v>
+        <v>0.4382753114088374</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769849179</v>
+        <v>0.3465542769849606</v>
       </c>
       <c r="E8">
-        <v>0.4250578330698076</v>
+        <v>0.4250578330698218</v>
       </c>
       <c r="F8">
-        <v>11.22040029061375</v>
+        <v>11.22040029061361</v>
       </c>
       <c r="G8">
-        <v>9.511344297591592</v>
+        <v>9.511344297591506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5715922063823555</v>
+        <v>0.5715922063823839</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -684,22 +684,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E9">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F9">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G9">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E10">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F10">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G10">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E11">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F11">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G11">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E12">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F12">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G12">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E13">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F13">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G13">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E14">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F14">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G14">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E15">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F15">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G15">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598007806</v>
+        <v>0.5722452598007095</v>
       </c>
       <c r="E16">
-        <v>0.7006787355589807</v>
+        <v>0.700678735558995</v>
       </c>
       <c r="F16">
-        <v>18.20620536141837</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G16">
-        <v>15.45485817670487</v>
+        <v>15.45485817670476</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9436442594476659</v>
+        <v>0.9436442594476873</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5722452598007806</v>
+        <v>0.8283333644473316</v>
       </c>
       <c r="E17">
-        <v>0.7006787355589807</v>
+        <v>1.011900856510863</v>
       </c>
       <c r="F17">
-        <v>18.20620536141837</v>
+        <v>25.7650879708965</v>
       </c>
       <c r="G17">
-        <v>15.45485817670487</v>
+        <v>21.90411421337598</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9436442594476659</v>
+        <v>1.364212599649683</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5722452598007806</v>
+        <v>0.7439910364903852</v>
       </c>
       <c r="E18">
-        <v>0.7006787355589807</v>
+        <v>0.9096919231372453</v>
       </c>
       <c r="F18">
-        <v>18.20620536141837</v>
+        <v>23.32803266299914</v>
       </c>
       <c r="G18">
-        <v>15.45485817670487</v>
+        <v>19.82209182353813</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9436442594476659</v>
+        <v>1.22599724610312</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5722452598007806</v>
+        <v>0.7224291772872533</v>
       </c>
       <c r="E19">
-        <v>0.7006787355589807</v>
+        <v>0.8835122146898726</v>
       </c>
       <c r="F19">
-        <v>18.20620536141837</v>
+        <v>22.69617710014103</v>
       </c>
       <c r="G19">
-        <v>15.45485817670487</v>
+        <v>19.28275328945574</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9436442594476659</v>
+        <v>1.190611709018697</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E20">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F20">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G20">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1140,22 +1140,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E21">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F21">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G21">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E22">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F22">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G22">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1216,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E23">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F23">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G23">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E24">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F24">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G24">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5722452598007806</v>
+        <v>0.8509618447483263</v>
       </c>
       <c r="E25">
-        <v>0.7006787355589807</v>
+        <v>1.039267381768433</v>
       </c>
       <c r="F25">
-        <v>18.20620536141837</v>
+        <v>26.40905441971267</v>
       </c>
       <c r="G25">
-        <v>15.45485817670487</v>
+        <v>22.45478953207945</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9436442594476659</v>
+        <v>1.401238633258785</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912572000386</v>
+        <v>0.3691321814347361</v>
       </c>
       <c r="E2">
-        <v>0.4551437936525957</v>
+        <v>0.4550048025242859</v>
       </c>
       <c r="F2">
-        <v>11.99406617202123</v>
+        <v>11.9578736804377</v>
       </c>
       <c r="G2">
-        <v>10.1690367836475</v>
+        <v>3.426209423606053</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.706139889691656</v>
       </c>
       <c r="I2">
-        <v>0.6122084013271163</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6112054254289134</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783422584</v>
+        <v>0.301531647864806</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407577</v>
+        <v>0.3720566090205892</v>
       </c>
       <c r="F3">
-        <v>9.851954343315896</v>
+        <v>9.824550792506585</v>
       </c>
       <c r="G3">
-        <v>8.348272532539539</v>
+        <v>2.811584671064907</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.50935375236412</v>
       </c>
       <c r="I3">
-        <v>0.5000557022850884</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4993587117686431</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440268293</v>
+        <v>0.2644308040431298</v>
       </c>
       <c r="E4">
-        <v>0.3265830756140815</v>
+        <v>0.3266012489849501</v>
       </c>
       <c r="F4">
-        <v>8.67073669978916</v>
+        <v>8.647606715256359</v>
       </c>
       <c r="G4">
-        <v>7.34453898035693</v>
+        <v>2.472307167565845</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.849570581268949</v>
       </c>
       <c r="I4">
-        <v>0.4386000163670687</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4380396480438051</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,25 +544,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110684702</v>
+        <v>0.2500960741022737</v>
       </c>
       <c r="E5">
-        <v>0.3090281261873997</v>
+        <v>0.3090583664862905</v>
       </c>
       <c r="F5">
-        <v>8.213491779935566</v>
+        <v>8.191924356156733</v>
       </c>
       <c r="G5">
-        <v>6.956039270655452</v>
+        <v>2.340895894899319</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.594213756933613</v>
       </c>
       <c r="I5">
-        <v>0.4148793150336658</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4143667441630043</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2490390561390257</v>
+        <v>0.2477560474312668</v>
       </c>
       <c r="E6">
-        <v>0.3061638540697729</v>
+        <v>0.3061958834827081</v>
       </c>
       <c r="F6">
-        <v>8.138810835529711</v>
+        <v>8.117494102614785</v>
       </c>
       <c r="G6">
-        <v>6.89258822127843</v>
+        <v>2.319428236083041</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.552509392750125</v>
       </c>
       <c r="I6">
-        <v>0.4110085586135099</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4105035449083374</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,25 +626,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.265615206440998</v>
+        <v>0.2642346404214067</v>
       </c>
       <c r="E7">
-        <v>0.3263427477397087</v>
+        <v>0.3263610993733579</v>
       </c>
       <c r="F7">
-        <v>8.664482471305661</v>
+        <v>8.641374187526566</v>
       </c>
       <c r="G7">
-        <v>7.339224913022093</v>
+        <v>2.4705100260515</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.84607761619344</v>
       </c>
       <c r="I7">
-        <v>0.4382753114088374</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4377156149942252</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769849606</v>
+        <v>0.3446637153054013</v>
       </c>
       <c r="E8">
-        <v>0.4250578330698218</v>
+        <v>0.4249680569802194</v>
       </c>
       <c r="F8">
-        <v>11.22040029061361</v>
+        <v>11.18755620716499</v>
       </c>
       <c r="G8">
-        <v>9.511344297591506</v>
+        <v>3.204315302491864</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.273867373268132</v>
       </c>
       <c r="I8">
-        <v>0.5715922063823839</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5707095585925046</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,25 +708,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E9">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F9">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G9">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I9">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,25 +749,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E10">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F10">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G10">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I10">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E11">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F11">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G11">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I11">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,25 +831,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E12">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F12">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G12">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I12">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,25 +872,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E13">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F13">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G13">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I13">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E14">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F14">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G14">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I14">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,25 +954,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E15">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F15">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G15">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I15">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598007095</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E16">
-        <v>0.700678735558995</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F16">
-        <v>18.2062053614182</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G16">
-        <v>15.45485817670476</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I16">
-        <v>0.9436442594476873</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,25 +1036,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.8283333644473316</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E17">
-        <v>1.011900856510863</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F17">
-        <v>25.7650879708965</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G17">
-        <v>21.90411421337598</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I17">
-        <v>1.364212599649683</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,25 +1077,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7439910364903852</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E18">
-        <v>0.9096919231372453</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F18">
-        <v>23.32803266299914</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G18">
-        <v>19.82209182353813</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I18">
-        <v>1.22599724610312</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,25 +1118,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.7224291772872533</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E19">
-        <v>0.8835122146898726</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F19">
-        <v>22.69617710014103</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G19">
-        <v>19.28275328945574</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I19">
-        <v>1.190611709018697</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,25 +1159,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E20">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F20">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G20">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I20">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,25 +1200,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E21">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F21">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G21">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I21">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E22">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F22">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G22">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I22">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,25 +1282,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E23">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F23">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G23">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I23">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E24">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F24">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G24">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I24">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,30 +1364,33 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.8509618447483263</v>
+        <v>0.5684039419814582</v>
       </c>
       <c r="E25">
-        <v>1.039267381768433</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F25">
-        <v>26.40905441971267</v>
+        <v>18.1311841273025</v>
       </c>
       <c r="G25">
-        <v>22.45478953207945</v>
+        <v>5.203981124928134</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.17569520087727</v>
       </c>
       <c r="I25">
-        <v>1.401238633258785</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9409880770288339</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.359432074872188</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3691321814347361</v>
+        <v>0.8855463182733843</v>
       </c>
       <c r="E2">
-        <v>0.4550048025242859</v>
+        <v>0.5257761861995363</v>
       </c>
       <c r="F2">
-        <v>11.9578736804377</v>
+        <v>6.833904581348321</v>
       </c>
       <c r="G2">
-        <v>3.426209423606053</v>
+        <v>0.000775832163513488</v>
       </c>
       <c r="H2">
-        <v>6.706139889691656</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6112054254289134</v>
+        <v>0.4671917490852877</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.434933594507442</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.934473009037617</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.301531647864806</v>
+        <v>0.7487276185204337</v>
       </c>
       <c r="E3">
-        <v>0.3720566090205892</v>
+        <v>0.4470194640080578</v>
       </c>
       <c r="F3">
-        <v>9.824550792506585</v>
+        <v>6.078550573736976</v>
       </c>
       <c r="G3">
-        <v>2.811584671064907</v>
+        <v>0.0007963081169728968</v>
       </c>
       <c r="H3">
-        <v>5.50935375236412</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4993587117686431</v>
+        <v>0.4053281925348529</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.090935030255906</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.683062094880597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2644308040431298</v>
+        <v>0.6687616125932152</v>
       </c>
       <c r="E4">
-        <v>0.3266012489849501</v>
+        <v>0.4005438109739003</v>
       </c>
       <c r="F4">
-        <v>8.647606715256359</v>
+        <v>5.644645105665887</v>
       </c>
       <c r="G4">
-        <v>2.472307167565845</v>
+        <v>0.0008089629873950916</v>
       </c>
       <c r="H4">
-        <v>4.849570581268949</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4380396480438051</v>
+        <v>0.3685356013180439</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.887796658228638</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.582622084309435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2500960741022737</v>
+        <v>0.6370013896383284</v>
       </c>
       <c r="E5">
-        <v>0.3090583664862905</v>
+        <v>0.3819819453201276</v>
       </c>
       <c r="F5">
-        <v>8.191924356156733</v>
+        <v>5.474151349828105</v>
       </c>
       <c r="G5">
-        <v>2.340895894899319</v>
+        <v>0.0008141544389799564</v>
       </c>
       <c r="H5">
-        <v>4.594213756933613</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4143667441630043</v>
+        <v>0.3537748024946126</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.806687109409353</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.566055682597607</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2477560474312668</v>
+        <v>0.6317726495320244</v>
       </c>
       <c r="E6">
-        <v>0.3061958834827081</v>
+        <v>0.3789200860062678</v>
       </c>
       <c r="F6">
-        <v>8.117494102614785</v>
+        <v>5.44619218660398</v>
       </c>
       <c r="G6">
-        <v>2.319428236083041</v>
+        <v>0.0008150189154979568</v>
       </c>
       <c r="H6">
-        <v>4.552509392750125</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4105035449083374</v>
+        <v>0.3513361011947751</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.793310521059084</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.681699836105906</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2642346404214067</v>
+        <v>0.6683301620666668</v>
       </c>
       <c r="E7">
-        <v>0.3263610993733579</v>
+        <v>0.4002920649326853</v>
       </c>
       <c r="F7">
-        <v>8.641374187526566</v>
+        <v>5.642321573796181</v>
       </c>
       <c r="G7">
-        <v>2.4705100260515</v>
+        <v>0.0008090328451500119</v>
       </c>
       <c r="H7">
-        <v>4.84607761619344</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4377156149942252</v>
+        <v>0.3683356701618834</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.886696450339116</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.210679954681723</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3446637153054013</v>
+        <v>0.8374064946978876</v>
       </c>
       <c r="E8">
-        <v>0.4249680569802194</v>
+        <v>0.4981666410466659</v>
       </c>
       <c r="F8">
-        <v>11.18755620716499</v>
+        <v>6.566469570119438</v>
       </c>
       <c r="G8">
-        <v>3.204315302491864</v>
+        <v>0.0007828842245822914</v>
       </c>
       <c r="H8">
-        <v>6.273867373268132</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5707095585925046</v>
+        <v>0.4455688671541083</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.314407257403445</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.345262844011813</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5684039419814582</v>
+        <v>1.212069955021576</v>
       </c>
       <c r="E9">
-        <v>0.6996409090718885</v>
+        <v>0.7106381275367681</v>
       </c>
       <c r="F9">
-        <v>18.1311841273025</v>
+        <v>8.684257108407252</v>
       </c>
       <c r="G9">
-        <v>5.203981124928134</v>
+        <v>0.0007314706422128425</v>
       </c>
       <c r="H9">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9409880770288339</v>
+        <v>0.610461497554823</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.238124190279507</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.279240793834617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5684039419814582</v>
+        <v>1.535037675001206</v>
       </c>
       <c r="E10">
-        <v>0.6996409090718885</v>
+        <v>0.8902427778095614</v>
       </c>
       <c r="F10">
-        <v>18.1311841273025</v>
+        <v>10.5573240050594</v>
       </c>
       <c r="G10">
-        <v>5.203981124928134</v>
+        <v>0.0006920971986942085</v>
       </c>
       <c r="H10">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9409880770288339</v>
+        <v>0.7476804197678462</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4.00879003801856</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.740154676887812</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5684039419814582</v>
+        <v>1.700004626552982</v>
       </c>
       <c r="E11">
-        <v>0.6996409090718885</v>
+        <v>0.9810275394846144</v>
       </c>
       <c r="F11">
-        <v>18.1311841273025</v>
+        <v>11.5243644914782</v>
       </c>
       <c r="G11">
-        <v>5.203981124928134</v>
+        <v>0.0006733018747946165</v>
       </c>
       <c r="H11">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9409880770288339</v>
+        <v>0.8164856273492802</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.393614007606288</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5.921719392037005</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5684039419814582</v>
+        <v>1.766096272736917</v>
       </c>
       <c r="E12">
-        <v>0.6996409090718885</v>
+        <v>1.017246913652428</v>
       </c>
       <c r="F12">
-        <v>18.1311841273025</v>
+        <v>11.91316120320107</v>
       </c>
       <c r="G12">
-        <v>5.203981124928134</v>
+        <v>0.0006659865495553911</v>
       </c>
       <c r="H12">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9409880770288339</v>
+        <v>0.8438518269378505</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.546147114397115</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.882265193187266</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5684039419814582</v>
+        <v>1.751679373020437</v>
       </c>
       <c r="E13">
-        <v>0.6996409090718885</v>
+        <v>1.009353143413762</v>
       </c>
       <c r="F13">
-        <v>18.1311841273025</v>
+        <v>11.82829417682257</v>
       </c>
       <c r="G13">
-        <v>5.203981124928134</v>
+        <v>0.0006675723326105198</v>
       </c>
       <c r="H13">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9409880770288339</v>
+        <v>0.8378912970954957</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.512953834334837</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.754937765003433</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5684039419814582</v>
+        <v>1.705361784965703</v>
       </c>
       <c r="E14">
-        <v>0.6996409090718885</v>
+        <v>0.9839664312668361</v>
       </c>
       <c r="F14">
-        <v>18.1311841273025</v>
+        <v>11.55585328492589</v>
       </c>
       <c r="G14">
-        <v>5.203981124928134</v>
+        <v>0.0006727045301428621</v>
       </c>
       <c r="H14">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9409880770288339</v>
+        <v>0.8187078318136685</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.406012588820431</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.677929681190051</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5684039419814582</v>
+        <v>1.677501355202764</v>
       </c>
       <c r="E15">
-        <v>0.6996409090718885</v>
+        <v>0.968676345291243</v>
       </c>
       <c r="F15">
-        <v>18.1311841273025</v>
+        <v>11.39214554524824</v>
       </c>
       <c r="G15">
-        <v>5.203981124928134</v>
+        <v>0.0006758197146157265</v>
       </c>
       <c r="H15">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9409880770288339</v>
+        <v>0.8071430885058533</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.341465349904524</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.249984736584281</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5684039419814582</v>
+        <v>1.52469750168973</v>
       </c>
       <c r="E16">
-        <v>0.6996409090718885</v>
+        <v>0.8845329137935636</v>
       </c>
       <c r="F16">
-        <v>18.1311841273025</v>
+        <v>10.49689968196344</v>
       </c>
       <c r="G16">
-        <v>5.203981124928134</v>
+        <v>0.0006933023586995545</v>
       </c>
       <c r="H16">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9409880770288339</v>
+        <v>0.743341885737351</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.984472824720569</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.99777422180199</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5684039419814582</v>
+        <v>1.436178323361474</v>
       </c>
       <c r="E17">
-        <v>0.6996409090718885</v>
+        <v>0.8355507083885954</v>
       </c>
       <c r="F17">
-        <v>18.1311841273025</v>
+        <v>9.980702301502561</v>
       </c>
       <c r="G17">
-        <v>5.203981124928134</v>
+        <v>0.000703759488237047</v>
       </c>
       <c r="H17">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9409880770288339</v>
+        <v>0.7060644375535787</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.7753436335949</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.855958779178877</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5684039419814582</v>
+        <v>1.386882495891399</v>
       </c>
       <c r="E18">
-        <v>0.6996409090718885</v>
+        <v>0.8081901169440471</v>
       </c>
       <c r="F18">
-        <v>18.1311841273025</v>
+        <v>9.694147450316933</v>
       </c>
       <c r="G18">
-        <v>5.203981124928134</v>
+        <v>0.0007096964689369999</v>
       </c>
       <c r="H18">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9409880770288339</v>
+        <v>0.6851932216127352</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.658133905438888</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.808456067155703</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5684039419814582</v>
+        <v>1.370445277193539</v>
       </c>
       <c r="E19">
-        <v>0.6996409090718885</v>
+        <v>0.7990532027727824</v>
       </c>
       <c r="F19">
-        <v>18.1311841273025</v>
+        <v>9.598756862210649</v>
       </c>
       <c r="G19">
-        <v>5.203981124928134</v>
+        <v>0.0007116949783558812</v>
       </c>
       <c r="H19">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9409880770288339</v>
+        <v>0.6782151933330312</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.618931954389382</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.024275193009373</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5684039419814582</v>
+        <v>1.445427850349944</v>
       </c>
       <c r="E20">
-        <v>0.6996409090718885</v>
+        <v>0.8406777083584842</v>
       </c>
       <c r="F20">
-        <v>18.1311841273025</v>
+        <v>10.03454553297274</v>
       </c>
       <c r="G20">
-        <v>5.203981124928134</v>
+        <v>0.0007026547664365342</v>
       </c>
       <c r="H20">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9409880770288339</v>
+        <v>0.709971425745124</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.797276340763062</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.792127388586437</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5684039419814582</v>
+        <v>1.718857433637083</v>
       </c>
       <c r="E21">
-        <v>0.6996409090718885</v>
+        <v>0.9913675897920768</v>
       </c>
       <c r="F21">
-        <v>18.1311841273025</v>
+        <v>11.63520004911453</v>
       </c>
       <c r="G21">
-        <v>5.203981124928134</v>
+        <v>0.0006712031814445217</v>
       </c>
       <c r="H21">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9409880770288339</v>
+        <v>0.824302787383715</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.437219616754362</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.336488897480081</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5684039419814582</v>
+        <v>1.919576126118955</v>
       </c>
       <c r="E22">
-        <v>0.6996409090718885</v>
+        <v>1.101058301373769</v>
       </c>
       <c r="F22">
-        <v>18.1311841273025</v>
+        <v>12.81829223018389</v>
       </c>
       <c r="G22">
-        <v>5.203981124928134</v>
+        <v>0.0006494323868112185</v>
       </c>
       <c r="H22">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9409880770288339</v>
+        <v>0.9070197184751692</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.89678321396525</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.041206646950002</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5684039419814582</v>
+        <v>1.809947990149396</v>
       </c>
       <c r="E23">
-        <v>0.6996409090718885</v>
+        <v>1.041234292255865</v>
       </c>
       <c r="F23">
-        <v>18.1311841273025</v>
+        <v>12.17147928218435</v>
       </c>
       <c r="G23">
-        <v>5.203981124928134</v>
+        <v>0.0006611963668375713</v>
       </c>
       <c r="H23">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9409880770288339</v>
+        <v>0.8619522759869938</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.646838835274309</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.012284313743748</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5684039419814582</v>
+        <v>1.441241240958476</v>
       </c>
       <c r="E24">
-        <v>0.6996409090718885</v>
+        <v>0.8383573364323382</v>
       </c>
       <c r="F24">
-        <v>18.1311841273025</v>
+        <v>10.01017160861741</v>
       </c>
       <c r="G24">
-        <v>5.203981124928134</v>
+        <v>0.0007031544397648322</v>
       </c>
       <c r="H24">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9409880770288339</v>
+        <v>0.7082033584916445</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.787351281401016</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.024374764152412</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5684039419814582</v>
+        <v>1.104282437206962</v>
       </c>
       <c r="E25">
-        <v>0.6996409090718885</v>
+        <v>0.6500332334375543</v>
       </c>
       <c r="F25">
-        <v>18.1311841273025</v>
+        <v>8.067442815829537</v>
       </c>
       <c r="G25">
-        <v>5.203981124928134</v>
+        <v>0.0007455234750550119</v>
       </c>
       <c r="H25">
-        <v>10.17569520087727</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9409880770288339</v>
+        <v>0.5637541046412764</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.975710786070465</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.359432074872188</v>
+        <v>0.2745396222272944</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8855463182733843</v>
+        <v>0.04017350230666494</v>
       </c>
       <c r="E2">
-        <v>0.5257761861995363</v>
+        <v>1.44612144284126</v>
       </c>
       <c r="F2">
-        <v>6.833904581348321</v>
+        <v>2.501867597490104</v>
       </c>
       <c r="G2">
-        <v>0.000775832163513488</v>
+        <v>0.0007667650097398949</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4671917490852877</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.023431146630458</v>
       </c>
       <c r="L2">
-        <v>2.434933594507442</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.167421892901899</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934473009037617</v>
+        <v>0.2394084866250523</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7487276185204337</v>
+        <v>0.03944937204029841</v>
       </c>
       <c r="E3">
-        <v>0.4470194640080578</v>
+        <v>1.229550544812398</v>
       </c>
       <c r="F3">
-        <v>6.078550573736976</v>
+        <v>2.211206137741755</v>
       </c>
       <c r="G3">
-        <v>0.0007963081169728968</v>
+        <v>0.0007775097351914854</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4053281925348529</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.302357448471128</v>
       </c>
       <c r="L3">
-        <v>2.090935030255906</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.185931527363522</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.683062094880597</v>
+        <v>0.2180945464837549</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6687616125932152</v>
+        <v>0.03917882760593017</v>
       </c>
       <c r="E4">
-        <v>0.4005438109739003</v>
+        <v>1.101082693881523</v>
       </c>
       <c r="F4">
-        <v>5.644645105665887</v>
+        <v>2.039959090781593</v>
       </c>
       <c r="G4">
-        <v>0.0008089629873950916</v>
+        <v>0.0007842168526542077</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3685356013180439</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.870460435998723</v>
       </c>
       <c r="L4">
-        <v>1.887796658228638</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.199486735602079</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.582622084309435</v>
+        <v>0.2094655914394821</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6370013896383284</v>
+        <v>0.03910699037730225</v>
       </c>
       <c r="E5">
-        <v>0.3819819453201276</v>
+        <v>1.049668535395796</v>
       </c>
       <c r="F5">
-        <v>5.474151349828105</v>
+        <v>1.971751901634008</v>
       </c>
       <c r="G5">
-        <v>0.0008141544389799564</v>
+        <v>0.0007869815964548125</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3537748024946126</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.696738599260129</v>
       </c>
       <c r="L5">
-        <v>1.806687109409353</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.205518852449075</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566055682597607</v>
+        <v>0.2080359637350568</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6317726495320244</v>
+        <v>0.03909723928568809</v>
       </c>
       <c r="E6">
-        <v>0.3789200860062678</v>
+        <v>1.041182653626151</v>
       </c>
       <c r="F6">
-        <v>5.44619218660398</v>
+        <v>1.960514988393712</v>
       </c>
       <c r="G6">
-        <v>0.0008150189154979568</v>
+        <v>0.0007874426908116136</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3513361011947751</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.668017856244035</v>
       </c>
       <c r="L6">
-        <v>1.793310521059084</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.206550028318389</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.681699836105906</v>
+        <v>0.2179779539444837</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6683301620666668</v>
+        <v>0.03917770979301238</v>
       </c>
       <c r="E7">
-        <v>0.4002920649326853</v>
+        <v>1.100385748024308</v>
       </c>
       <c r="F7">
-        <v>5.642321573796181</v>
+        <v>2.039033132302791</v>
       </c>
       <c r="G7">
-        <v>0.0008090328451500119</v>
+        <v>0.0007842540064545622</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3683356701618834</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.868108883817968</v>
       </c>
       <c r="L7">
-        <v>1.886696450339116</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.199566081509133</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210679954681723</v>
+        <v>0.2623681254586643</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8374064946978876</v>
+        <v>0.03988421400333664</v>
       </c>
       <c r="E8">
-        <v>0.4981666410466659</v>
+        <v>1.370385307019632</v>
       </c>
       <c r="F8">
-        <v>6.566469570119438</v>
+        <v>2.399996091957689</v>
       </c>
       <c r="G8">
-        <v>0.0007828842245822914</v>
+        <v>0.0007704495189310655</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4455688671541083</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.772266428167654</v>
       </c>
       <c r="L8">
-        <v>2.314407257403445</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.173322243661488</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.345262844011813</v>
+        <v>0.3518569709694503</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.212069955021576</v>
+        <v>0.04294193676695102</v>
       </c>
       <c r="E9">
-        <v>0.7106381275367681</v>
+        <v>1.946226574472306</v>
       </c>
       <c r="F9">
-        <v>8.684257108407252</v>
+        <v>3.177704688753067</v>
       </c>
       <c r="G9">
-        <v>0.0007314706422128425</v>
+        <v>0.0007440428295284651</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.610461497554823</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.655090986614596</v>
       </c>
       <c r="L9">
-        <v>3.238124190279507</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.141460038600698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.279240793834617</v>
+        <v>0.419737988573246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.535037675001206</v>
+        <v>0.04671536532669762</v>
       </c>
       <c r="E10">
-        <v>0.8902427778095614</v>
+        <v>2.416009311348205</v>
       </c>
       <c r="F10">
-        <v>10.5573240050594</v>
+        <v>3.81282624213236</v>
       </c>
       <c r="G10">
-        <v>0.0006920971986942085</v>
+        <v>0.0007246965454323778</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7476804197678462</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.145443166693099</v>
       </c>
       <c r="L10">
-        <v>4.00879003801856</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.13370904885501</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.740154676887812</v>
+        <v>0.4512549449444236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.700004626552982</v>
+        <v>0.04891730161540409</v>
       </c>
       <c r="E11">
-        <v>0.9810275394846144</v>
+        <v>2.645437258401742</v>
       </c>
       <c r="F11">
-        <v>11.5243644914782</v>
+        <v>4.121701022152365</v>
       </c>
       <c r="G11">
-        <v>0.0006733018747946165</v>
+        <v>0.0007158058540318986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8164856273492802</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.858330039025532</v>
       </c>
       <c r="L11">
-        <v>4.393614007606288</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.134644072053504</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.921719392037005</v>
+        <v>0.4632985488527339</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.766096272736917</v>
+        <v>0.04983817291877557</v>
       </c>
       <c r="E12">
-        <v>1.017246913652428</v>
+        <v>2.735200198466643</v>
       </c>
       <c r="F12">
-        <v>11.91316120320107</v>
+        <v>4.242189710909173</v>
       </c>
       <c r="G12">
-        <v>0.0006659865495553911</v>
+        <v>0.0007124152762074815</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8438518269378505</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.134561352594403</v>
       </c>
       <c r="L12">
-        <v>4.546147114397115</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.135753259620358</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.882265193187266</v>
+        <v>0.4606995973112333</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.751679373020437</v>
+        <v>0.0496356494163237</v>
       </c>
       <c r="E13">
-        <v>1.009353143413762</v>
+        <v>2.715728113678153</v>
       </c>
       <c r="F13">
-        <v>11.82829417682257</v>
+        <v>4.216071441092652</v>
       </c>
       <c r="G13">
-        <v>0.0006675723326105198</v>
+        <v>0.0007131467622749177</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8378912970954957</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.074767551661807</v>
       </c>
       <c r="L13">
-        <v>4.512953834334837</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.135478698720448</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.754937765003433</v>
+        <v>0.4522434894555545</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.705361784965703</v>
+        <v>0.0489912020395451</v>
       </c>
       <c r="E14">
-        <v>0.9839664312668361</v>
+        <v>2.652760138132791</v>
       </c>
       <c r="F14">
-        <v>11.55585328492589</v>
+        <v>4.131538753956136</v>
       </c>
       <c r="G14">
-        <v>0.0006727045301428621</v>
+        <v>0.0007155274596705919</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8187078318136685</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.88092168592766</v>
       </c>
       <c r="L14">
-        <v>4.406012588820431</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.13471944749071</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.677929681190051</v>
+        <v>0.4470786112052139</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.677501355202764</v>
+        <v>0.04860838702884251</v>
       </c>
       <c r="E15">
-        <v>0.968676345291243</v>
+        <v>2.614587338982133</v>
       </c>
       <c r="F15">
-        <v>11.39214554524824</v>
+        <v>4.08024111108989</v>
       </c>
       <c r="G15">
-        <v>0.0006758197146157265</v>
+        <v>0.0007169822277219596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8071430885058533</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.763045286899171</v>
       </c>
       <c r="L15">
-        <v>4.341465349904524</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.134356537625749</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.249984736584281</v>
+        <v>0.4176925082527134</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.52469750168973</v>
+        <v>0.04658260348544729</v>
       </c>
       <c r="E16">
-        <v>0.8845329137935636</v>
+        <v>2.401381564046588</v>
       </c>
       <c r="F16">
-        <v>10.49689968196344</v>
+        <v>3.793094716884752</v>
       </c>
       <c r="G16">
-        <v>0.0006933023586995545</v>
+        <v>0.0007252748862446389</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.743341885737351</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.099657706058622</v>
       </c>
       <c r="L16">
-        <v>3.984472824720569</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.133746855818885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.99777422180199</v>
+        <v>0.3998396666499957</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.436178323361474</v>
+        <v>0.04547508313743265</v>
       </c>
       <c r="E17">
-        <v>0.8355507083885954</v>
+        <v>2.275007287252649</v>
       </c>
       <c r="F17">
-        <v>9.980702301502561</v>
+        <v>3.622471565060636</v>
       </c>
       <c r="G17">
-        <v>0.000703759488237047</v>
+        <v>0.0007303321173266113</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7060644375535787</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.7024393904818</v>
       </c>
       <c r="L17">
-        <v>3.7753436335949</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.13458865231641</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.855958779178877</v>
+        <v>0.3896300123676042</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.386882495891399</v>
+        <v>0.04488249648250076</v>
       </c>
       <c r="E18">
-        <v>0.8081901169440471</v>
+        <v>2.203754531785776</v>
       </c>
       <c r="F18">
-        <v>9.694147450316933</v>
+        <v>3.526165118817289</v>
       </c>
       <c r="G18">
-        <v>0.0007096964689369999</v>
+        <v>0.0007332332173355926</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6851932216127352</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.47716672005788</v>
       </c>
       <c r="L18">
-        <v>3.658133905438888</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.135484642936305</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808456067155703</v>
+        <v>0.3861828274480388</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.370445277193539</v>
+        <v>0.04468903298620575</v>
       </c>
       <c r="E19">
-        <v>0.7990532027727824</v>
+        <v>2.179859520097892</v>
       </c>
       <c r="F19">
-        <v>9.598756862210649</v>
+        <v>3.493854361545345</v>
       </c>
       <c r="G19">
-        <v>0.0007116949783558812</v>
+        <v>0.0007342144526650713</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6782151933330312</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.401408660381605</v>
       </c>
       <c r="L19">
-        <v>3.618931954389382</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.135855672745251</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.024275193009373</v>
+        <v>0.4017339288860313</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.445427850349944</v>
+        <v>0.04558827155598522</v>
       </c>
       <c r="E20">
-        <v>0.8406777083584842</v>
+        <v>2.288307595811759</v>
       </c>
       <c r="F20">
-        <v>10.03454553297274</v>
+        <v>3.640440866376792</v>
       </c>
       <c r="G20">
-        <v>0.0007026547664365342</v>
+        <v>0.0007297946328351551</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.709971425745124</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.744384929457908</v>
       </c>
       <c r="L20">
-        <v>3.797276340763062</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.134455676972962</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.792127388586437</v>
+        <v>0.4547241481127315</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.718857433637083</v>
+        <v>0.04917796844723199</v>
       </c>
       <c r="E21">
-        <v>0.9913675897920768</v>
+        <v>2.671171281404057</v>
       </c>
       <c r="F21">
-        <v>11.63520004911453</v>
+        <v>4.156266402425928</v>
       </c>
       <c r="G21">
-        <v>0.0006712031814445217</v>
+        <v>0.0007148289392582845</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.824302787383715</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.937677050653917</v>
       </c>
       <c r="L21">
-        <v>4.437219616754362</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.13492092828119</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.336488897480081</v>
+        <v>0.4900009398542267</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.919576126118955</v>
+        <v>0.05204317514787959</v>
       </c>
       <c r="E22">
-        <v>1.101058301373769</v>
+        <v>2.938628163813718</v>
       </c>
       <c r="F22">
-        <v>12.81829223018389</v>
+        <v>4.514358638912199</v>
       </c>
       <c r="G22">
-        <v>0.0006494323868112185</v>
+        <v>0.0007049016964354054</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9070197184751692</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.754969875473989</v>
       </c>
       <c r="L22">
-        <v>4.89678321396525</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.139699741201994</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.041206646950002</v>
+        <v>0.4711075562958627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.809947990149396</v>
+        <v>0.05045943847846956</v>
       </c>
       <c r="E23">
-        <v>1.041234292255865</v>
+        <v>2.794050675356431</v>
       </c>
       <c r="F23">
-        <v>12.17147928218435</v>
+        <v>4.321059501176194</v>
       </c>
       <c r="G23">
-        <v>0.0006611963668375713</v>
+        <v>0.0007102177956799713</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8619522759869938</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.314842961575891</v>
       </c>
       <c r="L23">
-        <v>4.646838835274309</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.136694935255235</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.012284313743748</v>
+        <v>0.4008773654168607</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.441241240958476</v>
+        <v>0.0455369628166693</v>
       </c>
       <c r="E24">
-        <v>0.8383573364323382</v>
+        <v>2.282290205556919</v>
       </c>
       <c r="F24">
-        <v>10.01017160861741</v>
+        <v>3.632311426213249</v>
       </c>
       <c r="G24">
-        <v>0.0007031544397648322</v>
+        <v>0.0007300376486725873</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7082033584916445</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.725411806505406</v>
       </c>
       <c r="L24">
-        <v>3.787351281401016</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.134514519961996</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.024374764152412</v>
+        <v>0.3273251093622775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.104282437206962</v>
+        <v>0.04188982085864268</v>
       </c>
       <c r="E25">
-        <v>0.6500332334375543</v>
+        <v>1.783810182596085</v>
       </c>
       <c r="F25">
-        <v>8.067442815829537</v>
+        <v>2.957881513598124</v>
       </c>
       <c r="G25">
-        <v>0.0007455234750550119</v>
+        <v>0.0007511477448920445</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5637541046412764</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.130288973003246</v>
       </c>
       <c r="L25">
-        <v>2.975710786070465</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.147637564817401</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2745396222272944</v>
+        <v>0.1423941644592333</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04017350230666494</v>
+        <v>0.05807279407734711</v>
       </c>
       <c r="E2">
-        <v>1.44612144284126</v>
+        <v>0.4087874611668241</v>
       </c>
       <c r="F2">
-        <v>2.501867597490104</v>
+        <v>1.79638570722858</v>
       </c>
       <c r="G2">
-        <v>0.0007667650097398949</v>
+        <v>0.0024656531813163</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.023431146630458</v>
+        <v>1.694994303719</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.167421892901899</v>
+        <v>1.862483254517457</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2394084866250523</v>
+        <v>0.1329530972492705</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03944937204029841</v>
+        <v>0.05817162727246128</v>
       </c>
       <c r="E3">
-        <v>1.229550544812398</v>
+        <v>0.3562932915316708</v>
       </c>
       <c r="F3">
-        <v>2.211206137741755</v>
+        <v>1.735381256389203</v>
       </c>
       <c r="G3">
-        <v>0.0007775097351914854</v>
+        <v>0.002471821482353404</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.302357448471128</v>
+        <v>1.518540894162186</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.185931527363522</v>
+        <v>1.870822257611934</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2180945464837549</v>
+        <v>0.1272303690788164</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03917882760593017</v>
+        <v>0.05826370576566831</v>
       </c>
       <c r="E4">
-        <v>1.101082693881523</v>
+        <v>0.3242131329484721</v>
       </c>
       <c r="F4">
-        <v>2.039959090781593</v>
+        <v>1.699164556402764</v>
       </c>
       <c r="G4">
-        <v>0.0007842168526542077</v>
+        <v>0.002475799153064283</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.870460435998723</v>
+        <v>1.411087437083324</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.199486735602079</v>
+        <v>1.876562783581662</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2094655914394821</v>
+        <v>0.1249170176737806</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03910699037730225</v>
+        <v>0.05830903056088843</v>
       </c>
       <c r="E5">
-        <v>1.049668535395796</v>
+        <v>0.3111749585332717</v>
       </c>
       <c r="F5">
-        <v>1.971751901634008</v>
+        <v>1.684714150371974</v>
       </c>
       <c r="G5">
-        <v>0.0007869815964548125</v>
+        <v>0.002477468136768102</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.696738599260129</v>
+        <v>1.367516525671363</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.205518852449075</v>
+        <v>1.879057246869735</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2080359637350568</v>
+        <v>0.1245340193066511</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03909723928568809</v>
+        <v>0.05831702526318949</v>
       </c>
       <c r="E6">
-        <v>1.041182653626151</v>
+        <v>0.3090119818158712</v>
       </c>
       <c r="F6">
-        <v>1.960514988393712</v>
+        <v>1.682333178880455</v>
       </c>
       <c r="G6">
-        <v>0.0007874426908116136</v>
+        <v>0.002477748178305293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.668017856244035</v>
+        <v>1.360294543318332</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.206550028318389</v>
+        <v>1.879480797056914</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2179779539444837</v>
+        <v>0.1271990945780601</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03917770979301238</v>
+        <v>0.0582642855612967</v>
       </c>
       <c r="E7">
-        <v>1.100385748024308</v>
+        <v>0.3240371592440425</v>
       </c>
       <c r="F7">
-        <v>2.039033132302791</v>
+        <v>1.698968430134329</v>
       </c>
       <c r="G7">
-        <v>0.0007842540064545622</v>
+        <v>0.002475821466867762</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.868108883817968</v>
+        <v>1.410498953382671</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.199566081509133</v>
+        <v>1.876595797675492</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2623681254586643</v>
+        <v>0.1391235364462773</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03988421400333664</v>
+        <v>0.05810029969813257</v>
       </c>
       <c r="E8">
-        <v>1.370385307019632</v>
+        <v>0.3906539952307782</v>
       </c>
       <c r="F8">
-        <v>2.399996091957689</v>
+        <v>1.775091696737846</v>
       </c>
       <c r="G8">
-        <v>0.0007704495189310655</v>
+        <v>0.002467740631128563</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.772266428167654</v>
+        <v>1.633964544863545</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.173322243661488</v>
+        <v>1.865229282749311</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3518569709694503</v>
+        <v>0.1630939545643884</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04294193676695102</v>
+        <v>0.05803208871130749</v>
       </c>
       <c r="E9">
-        <v>1.946226574472306</v>
+        <v>0.5226494177196344</v>
       </c>
       <c r="F9">
-        <v>3.177704688753067</v>
+        <v>1.934387811767778</v>
       </c>
       <c r="G9">
-        <v>0.0007440428295284651</v>
+        <v>0.00245339517264902</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.655090986614596</v>
+        <v>2.079556702365721</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.141460038600698</v>
+        <v>1.847900062226273</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.419737988573246</v>
+        <v>0.1810627156776974</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04671536532669762</v>
+        <v>0.05814248345022577</v>
       </c>
       <c r="E10">
-        <v>2.416009311348205</v>
+        <v>0.6206855936165994</v>
       </c>
       <c r="F10">
-        <v>3.81282624213236</v>
+        <v>2.057792685750201</v>
       </c>
       <c r="G10">
-        <v>0.0007246965454323778</v>
+        <v>0.0024437580025164</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.145443166693099</v>
+        <v>2.411908645233268</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.13370904885501</v>
+        <v>1.838246175388875</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4512549449444236</v>
+        <v>0.1893150198794302</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04891730161540409</v>
+        <v>0.05822890746777176</v>
       </c>
       <c r="E11">
-        <v>2.645437258401742</v>
+        <v>0.6655660802868368</v>
       </c>
       <c r="F11">
-        <v>4.121701022152365</v>
+        <v>2.11537466235697</v>
       </c>
       <c r="G11">
-        <v>0.0007158058540318986</v>
+        <v>0.002439567040554846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.858330039025532</v>
+        <v>2.564292154730026</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.134644072053504</v>
+        <v>1.834534601588018</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4632985488527339</v>
+        <v>0.1924511733605385</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04983817291877557</v>
+        <v>0.05826695333356469</v>
       </c>
       <c r="E12">
-        <v>2.735200198466643</v>
+        <v>0.6826060028226806</v>
       </c>
       <c r="F12">
-        <v>4.242189710909173</v>
+        <v>2.137391787888248</v>
       </c>
       <c r="G12">
-        <v>0.0007124152762074815</v>
+        <v>0.002438007579795179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.134561352594403</v>
+        <v>2.622175948443328</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.135753259620358</v>
+        <v>1.833227910256056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4606995973112333</v>
+        <v>0.1917752501320962</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0496356494163237</v>
+        <v>0.05825852108804241</v>
       </c>
       <c r="E13">
-        <v>2.715728113678153</v>
+        <v>0.6789341013130468</v>
       </c>
       <c r="F13">
-        <v>4.216071441092652</v>
+        <v>2.132640503107922</v>
       </c>
       <c r="G13">
-        <v>0.0007131467622749177</v>
+        <v>0.002438342214528462</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.074767551661807</v>
+        <v>2.609701532520205</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.135478698720448</v>
+        <v>1.833504919059351</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4522434894555545</v>
+        <v>0.1895728093075491</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0489912020395451</v>
+        <v>0.05823193026785844</v>
       </c>
       <c r="E14">
-        <v>2.652760138132791</v>
+        <v>0.6669670472663967</v>
       </c>
       <c r="F14">
-        <v>4.131538753956136</v>
+        <v>2.117181748778847</v>
       </c>
       <c r="G14">
-        <v>0.0007155274596705919</v>
+        <v>0.002439438191544833</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.88092168592766</v>
+        <v>2.569050648138614</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.13471944749071</v>
+        <v>1.834425113315717</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4470786112052139</v>
+        <v>0.1882252054682283</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04860838702884251</v>
+        <v>0.0582163387019321</v>
       </c>
       <c r="E15">
-        <v>2.614587338982133</v>
+        <v>0.6596428142970581</v>
       </c>
       <c r="F15">
-        <v>4.08024111108989</v>
+        <v>2.107740565696048</v>
       </c>
       <c r="G15">
-        <v>0.0007169822277219596</v>
+        <v>0.002440113092942624</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.763045286899171</v>
+        <v>2.544174409094182</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.134356537625749</v>
+        <v>1.835001656078362</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4176925082527134</v>
+        <v>0.1805249767861028</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04658260348544729</v>
+        <v>0.05813757354859916</v>
       </c>
       <c r="E16">
-        <v>2.401381564046588</v>
+        <v>0.6177585822569824</v>
       </c>
       <c r="F16">
-        <v>3.793094716884752</v>
+        <v>2.054059005952809</v>
       </c>
       <c r="G16">
-        <v>0.0007252748862446389</v>
+        <v>0.00244403575950625</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.099657706058622</v>
+        <v>2.40197471836899</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.133746855818885</v>
+        <v>1.838502505632349</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3998396666499957</v>
+        <v>0.1758211252122379</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04547508313743265</v>
+        <v>0.05809860598525773</v>
       </c>
       <c r="E17">
-        <v>2.275007287252649</v>
+        <v>0.5921392891548294</v>
       </c>
       <c r="F17">
-        <v>3.622471565060636</v>
+        <v>2.021500151810017</v>
       </c>
       <c r="G17">
-        <v>0.0007303321173266113</v>
+        <v>0.002446491492306622</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.7024393904818</v>
+        <v>2.3150512434093</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.13458865231641</v>
+        <v>1.840825050703998</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3896300123676042</v>
+        <v>0.1731229607540428</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04488249648250076</v>
+        <v>0.05807959374582339</v>
       </c>
       <c r="E18">
-        <v>2.203754531785776</v>
+        <v>0.5774301793740904</v>
       </c>
       <c r="F18">
-        <v>3.526165118817289</v>
+        <v>2.00290885484813</v>
       </c>
       <c r="G18">
-        <v>0.0007332332173355926</v>
+        <v>0.002447922145749062</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.47716672005788</v>
+        <v>2.265167166055221</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.135484642936305</v>
+        <v>1.842224862960578</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3861828274480388</v>
+        <v>0.1722106758140569</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04468903298620575</v>
+        <v>0.05807373723857268</v>
       </c>
       <c r="E19">
-        <v>2.179859520097892</v>
+        <v>0.5724543491298704</v>
       </c>
       <c r="F19">
-        <v>3.493854361545345</v>
+        <v>1.996637335274158</v>
       </c>
       <c r="G19">
-        <v>0.0007342144526650713</v>
+        <v>0.002448409668827868</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.401408660381605</v>
+        <v>2.248296282105514</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.135855672745251</v>
+        <v>1.842709767454352</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4017339288860313</v>
+        <v>0.1763210962985653</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04558827155598522</v>
+        <v>0.05810240136357692</v>
       </c>
       <c r="E20">
-        <v>2.288307595811759</v>
+        <v>0.5948637431657176</v>
       </c>
       <c r="F20">
-        <v>3.640440866376792</v>
+        <v>2.024952022186511</v>
       </c>
       <c r="G20">
-        <v>0.0007297946328351551</v>
+        <v>0.002446228195148174</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.744384929457908</v>
+        <v>2.324292748737832</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.134455676972962</v>
+        <v>1.840571186387493</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4547241481127315</v>
+        <v>0.1902194165059257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04917796844723199</v>
+        <v>0.05823959536892431</v>
       </c>
       <c r="E21">
-        <v>2.671171281404057</v>
+        <v>0.6704808175591523</v>
       </c>
       <c r="F21">
-        <v>4.156266402425928</v>
+        <v>2.121716568588141</v>
       </c>
       <c r="G21">
-        <v>0.0007148289392582845</v>
+        <v>0.002439115529828838</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.937677050653917</v>
+        <v>2.580985865887214</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.13492092828119</v>
+        <v>1.834152140351193</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4900009398542267</v>
+        <v>0.1993679386963407</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05204317514787959</v>
+        <v>0.05836031687433518</v>
       </c>
       <c r="E22">
-        <v>2.938628163813718</v>
+        <v>0.7201631161930493</v>
       </c>
       <c r="F22">
-        <v>4.514358638912199</v>
+        <v>2.18619605412448</v>
       </c>
       <c r="G22">
-        <v>0.0007049016964354054</v>
+        <v>0.002434627575358192</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.754969875473989</v>
+        <v>2.749799393632316</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.139699741201994</v>
+        <v>1.830533294493634</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4711075562958627</v>
+        <v>0.1944792579969032</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05045943847846956</v>
+        <v>0.05829300582215069</v>
       </c>
       <c r="E23">
-        <v>2.794050675356431</v>
+        <v>0.6936214344406579</v>
       </c>
       <c r="F23">
-        <v>4.321059501176194</v>
+        <v>2.151667371610046</v>
       </c>
       <c r="G23">
-        <v>0.0007102177956799713</v>
+        <v>0.002437008251489494</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.314842961575891</v>
+        <v>2.65960181620801</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.136694935255235</v>
+        <v>1.832411662877448</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4008773654168607</v>
+        <v>0.1760950402325392</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0455369628166693</v>
+        <v>0.05810067492046755</v>
       </c>
       <c r="E24">
-        <v>2.282290205556919</v>
+        <v>0.5936319562445931</v>
       </c>
       <c r="F24">
-        <v>3.632311426213249</v>
+        <v>2.023391035650263</v>
       </c>
       <c r="G24">
-        <v>0.0007300376486725873</v>
+        <v>0.002446347173128638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.725411806505406</v>
+        <v>2.320114386335433</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.134514519961996</v>
+        <v>1.840685757462211</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3273251093622775</v>
+        <v>0.1565465185942259</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04188982085864268</v>
+        <v>0.05802280047137032</v>
       </c>
       <c r="E25">
-        <v>1.783810182596085</v>
+        <v>0.4867720553613708</v>
       </c>
       <c r="F25">
-        <v>2.957881513598124</v>
+        <v>1.890194602601071</v>
       </c>
       <c r="G25">
-        <v>0.0007511477448920445</v>
+        <v>0.00245711660854621</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.130288973003246</v>
+        <v>1.958173624638732</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.147637564817401</v>
+        <v>1.852051513601197</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423941644592333</v>
+        <v>0.2745396222272376</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05807279407734711</v>
+        <v>0.04017350230643757</v>
       </c>
       <c r="E2">
-        <v>0.4087874611668241</v>
+        <v>1.446121442841203</v>
       </c>
       <c r="F2">
-        <v>1.79638570722858</v>
+        <v>2.501867597490133</v>
       </c>
       <c r="G2">
-        <v>0.0024656531813163</v>
+        <v>0.000766765009796444</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.694994303719</v>
+        <v>5.023431146630571</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.862483254517457</v>
+        <v>1.167421892901928</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329530972492705</v>
+        <v>0.2394084866251092</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05817162727246128</v>
+        <v>0.039449372040405</v>
       </c>
       <c r="E3">
-        <v>0.3562932915316708</v>
+        <v>1.229550544812369</v>
       </c>
       <c r="F3">
-        <v>1.735381256389203</v>
+        <v>2.211206137741769</v>
       </c>
       <c r="G3">
-        <v>0.002471821482353404</v>
+        <v>0.0007775097351905291</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.518540894162186</v>
+        <v>4.302357448471128</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.870822257611934</v>
+        <v>1.185931527363437</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272303690788164</v>
+        <v>0.2180945464838402</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05826370576566831</v>
+        <v>0.03917882760595148</v>
       </c>
       <c r="E4">
-        <v>0.3242131329484721</v>
+        <v>1.101082693881537</v>
       </c>
       <c r="F4">
-        <v>1.699164556402764</v>
+        <v>2.039959090781579</v>
       </c>
       <c r="G4">
-        <v>0.002475799153064283</v>
+        <v>0.0007842168526565398</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.411087437083324</v>
+        <v>3.870460435998666</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.876562783581662</v>
+        <v>1.199486735602093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249170176737806</v>
+        <v>0.2094655914393684</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05830903056088843</v>
+        <v>0.03910699037718857</v>
       </c>
       <c r="E5">
-        <v>0.3111749585332717</v>
+        <v>1.049668535395824</v>
       </c>
       <c r="F5">
-        <v>1.684714150371974</v>
+        <v>1.971751901633993</v>
       </c>
       <c r="G5">
-        <v>0.002477468136768102</v>
+        <v>0.0007869815963445451</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.367516525671363</v>
+        <v>3.696738599260186</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.879057246869735</v>
+        <v>1.205518852449003</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245340193066511</v>
+        <v>0.2080359637349289</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05831702526318949</v>
+        <v>0.03909723928547493</v>
       </c>
       <c r="E6">
-        <v>0.3090119818158712</v>
+        <v>1.041182653626237</v>
       </c>
       <c r="F6">
-        <v>1.682333178880455</v>
+        <v>1.960514988393712</v>
       </c>
       <c r="G6">
-        <v>0.002477748178305293</v>
+        <v>0.0007874426906977483</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.360294543318332</v>
+        <v>3.668017856243921</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.879480797056914</v>
+        <v>1.20655002831846</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271990945780601</v>
+        <v>0.2179779539444127</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0582642855612967</v>
+        <v>0.03917770979301238</v>
       </c>
       <c r="E7">
-        <v>0.3240371592440425</v>
+        <v>1.100385748024323</v>
       </c>
       <c r="F7">
-        <v>1.698968430134329</v>
+        <v>2.039033132302805</v>
       </c>
       <c r="G7">
-        <v>0.002475821466867762</v>
+        <v>0.0007842540064540951</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.410498953382671</v>
+        <v>3.868108883817968</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.876595797675492</v>
+        <v>1.199566081509133</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391235364462773</v>
+        <v>0.2623681254585222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05810029969813257</v>
+        <v>0.03988421400311637</v>
       </c>
       <c r="E8">
-        <v>0.3906539952307782</v>
+        <v>1.370385307019589</v>
       </c>
       <c r="F8">
-        <v>1.775091696737846</v>
+        <v>2.399996091957675</v>
       </c>
       <c r="G8">
-        <v>0.002467740631128563</v>
+        <v>0.0007704495189874735</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.633964544863545</v>
+        <v>4.772266428167768</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.865229282749311</v>
+        <v>1.173322243661474</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1630939545643884</v>
+        <v>0.3518569709693509</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05803208871130749</v>
+        <v>0.04294193676705049</v>
       </c>
       <c r="E9">
-        <v>0.5226494177196344</v>
+        <v>1.946226574472291</v>
       </c>
       <c r="F9">
-        <v>1.934387811767778</v>
+        <v>3.177704688753067</v>
       </c>
       <c r="G9">
-        <v>0.00245339517264902</v>
+        <v>0.0007440428294064327</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.079556702365721</v>
+        <v>6.655090986614482</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.847900062226273</v>
+        <v>1.141460038600698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1810627156776974</v>
+        <v>0.4197379885732317</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05814248345022577</v>
+        <v>0.04671536532649156</v>
       </c>
       <c r="E10">
-        <v>0.6206855936165994</v>
+        <v>2.416009311348205</v>
       </c>
       <c r="F10">
-        <v>2.057792685750201</v>
+        <v>3.812826242132388</v>
       </c>
       <c r="G10">
-        <v>0.0024437580025164</v>
+        <v>0.0007246965455587166</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.411908645233268</v>
+        <v>8.145443166693042</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.838246175388875</v>
+        <v>1.133709048855081</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1893150198794302</v>
+        <v>0.4512549449444379</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05822890746777176</v>
+        <v>0.04891730161563146</v>
       </c>
       <c r="E11">
-        <v>0.6655660802868368</v>
+        <v>2.645437258401685</v>
       </c>
       <c r="F11">
-        <v>2.11537466235697</v>
+        <v>4.121701022152308</v>
       </c>
       <c r="G11">
-        <v>0.002439567040554846</v>
+        <v>0.0007158058540160619</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.564292154730026</v>
+        <v>8.858330039025361</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.834534601588018</v>
+        <v>1.134644072053518</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1924511733605385</v>
+        <v>0.4632985488526771</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05826695333356469</v>
+        <v>0.04983817291863346</v>
       </c>
       <c r="E12">
-        <v>0.6826060028226806</v>
+        <v>2.735200198466629</v>
       </c>
       <c r="F12">
-        <v>2.137391787888248</v>
+        <v>4.242189710909173</v>
       </c>
       <c r="G12">
-        <v>0.002438007579795179</v>
+        <v>0.0007124152763141267</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.622175948443328</v>
+        <v>9.134561352594574</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.833227910256056</v>
+        <v>1.135753259620415</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1917752501320962</v>
+        <v>0.460699597311347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05825852108804241</v>
+        <v>0.04963564941668608</v>
       </c>
       <c r="E13">
-        <v>0.6789341013130468</v>
+        <v>2.715728113678182</v>
       </c>
       <c r="F13">
-        <v>2.132640503107922</v>
+        <v>4.21607144109268</v>
       </c>
       <c r="G13">
-        <v>0.002438342214528462</v>
+        <v>0.0007131467623302523</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.609701532520205</v>
+        <v>9.074767551661807</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.833504919059351</v>
+        <v>1.135478698720448</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1895728093075491</v>
+        <v>0.4522434894556682</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05823193026785844</v>
+        <v>0.04899120203926799</v>
       </c>
       <c r="E14">
-        <v>0.6669670472663967</v>
+        <v>2.652760138132777</v>
       </c>
       <c r="F14">
-        <v>2.117181748778847</v>
+        <v>4.131538753956107</v>
       </c>
       <c r="G14">
-        <v>0.002439438191544833</v>
+        <v>0.0007155274595448111</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.569050648138614</v>
+        <v>8.88092168592766</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.834425113315717</v>
+        <v>1.134719447490767</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1882252054682283</v>
+        <v>0.447078611205157</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0582163387019321</v>
+        <v>0.04860838702897752</v>
       </c>
       <c r="E15">
-        <v>0.6596428142970581</v>
+        <v>2.614587338982176</v>
       </c>
       <c r="F15">
-        <v>2.107740565696048</v>
+        <v>4.08024111108989</v>
       </c>
       <c r="G15">
-        <v>0.002440113092942624</v>
+        <v>0.0007169822278635506</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.544174409094182</v>
+        <v>8.763045286899285</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.835001656078362</v>
+        <v>1.134356537625735</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1805249767861028</v>
+        <v>0.4176925082528413</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05813757354859916</v>
+        <v>0.0465826034851915</v>
       </c>
       <c r="E16">
-        <v>0.6177585822569824</v>
+        <v>2.401381564046545</v>
       </c>
       <c r="F16">
-        <v>2.054059005952809</v>
+        <v>3.793094716884781</v>
       </c>
       <c r="G16">
-        <v>0.00244403575950625</v>
+        <v>0.0007252748862277481</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.40197471836899</v>
+        <v>8.099657706058565</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.838502505632349</v>
+        <v>1.133746855818913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1758211252122379</v>
+        <v>0.3998396666499247</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05809860598525773</v>
+        <v>0.04547508313753212</v>
       </c>
       <c r="E17">
-        <v>0.5921392891548294</v>
+        <v>2.275007287252691</v>
       </c>
       <c r="F17">
-        <v>2.021500151810017</v>
+        <v>3.622471565060692</v>
       </c>
       <c r="G17">
-        <v>0.002446491492306622</v>
+        <v>0.000730332117325719</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.3150512434093</v>
+        <v>7.702439390481743</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.840825050703998</v>
+        <v>1.13458865231641</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1731229607540428</v>
+        <v>0.3896300123676042</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05807959374582339</v>
+        <v>0.04488249648250076</v>
       </c>
       <c r="E18">
-        <v>0.5774301793740904</v>
+        <v>2.203754531785776</v>
       </c>
       <c r="F18">
-        <v>2.00290885484813</v>
+        <v>3.526165118817289</v>
       </c>
       <c r="G18">
-        <v>0.002447922145749062</v>
+        <v>0.0007332332174038713</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.265167166055221</v>
+        <v>7.47716672005788</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.842224862960578</v>
+        <v>1.135484642936305</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1722106758140569</v>
+        <v>0.3861828274480388</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05807373723857268</v>
+        <v>0.04468903298658233</v>
       </c>
       <c r="E19">
-        <v>0.5724543491298704</v>
+        <v>2.179859520097892</v>
       </c>
       <c r="F19">
-        <v>1.996637335274158</v>
+        <v>3.493854361545345</v>
       </c>
       <c r="G19">
-        <v>0.002448409668827868</v>
+        <v>0.0007342144527333052</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.248296282105514</v>
+        <v>7.401408660381662</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.842709767454352</v>
+        <v>1.135855672745251</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1763210962985653</v>
+        <v>0.401733928886145</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05810240136357692</v>
+        <v>0.04558827155595679</v>
       </c>
       <c r="E20">
-        <v>0.5948637431657176</v>
+        <v>2.288307595811759</v>
       </c>
       <c r="F20">
-        <v>2.024952022186511</v>
+        <v>3.640440866376821</v>
       </c>
       <c r="G20">
-        <v>0.002446228195148174</v>
+        <v>0.0007297946329586478</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.324292748737832</v>
+        <v>7.744384929457908</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.840571186387493</v>
+        <v>1.134455676972948</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1902194165059257</v>
+        <v>0.454724148112831</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05823959536892431</v>
+        <v>0.04917796844743805</v>
       </c>
       <c r="E21">
-        <v>0.6704808175591523</v>
+        <v>2.671171281404057</v>
       </c>
       <c r="F21">
-        <v>2.121716568588141</v>
+        <v>4.156266402425928</v>
       </c>
       <c r="G21">
-        <v>0.002439115529828838</v>
+        <v>0.0007148289391296351</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.580985865887214</v>
+        <v>8.937677050654088</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.834152140351193</v>
+        <v>1.134920928281161</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1993679386963407</v>
+        <v>0.4900009398543403</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05836031687433518</v>
+        <v>0.05204317514802881</v>
       </c>
       <c r="E22">
-        <v>0.7201631161930493</v>
+        <v>2.938628163813689</v>
       </c>
       <c r="F22">
-        <v>2.18619605412448</v>
+        <v>4.514358638912199</v>
       </c>
       <c r="G22">
-        <v>0.002434627575358192</v>
+        <v>0.0007049016963614322</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.749799393632316</v>
+        <v>9.754969875473819</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.830533294493634</v>
+        <v>1.13969974120198</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1944792579969032</v>
+        <v>0.4711075562956921</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05829300582215069</v>
+        <v>0.05045943847846246</v>
       </c>
       <c r="E23">
-        <v>0.6936214344406579</v>
+        <v>2.794050675356502</v>
       </c>
       <c r="F23">
-        <v>2.151667371610046</v>
+        <v>4.321059501176165</v>
       </c>
       <c r="G23">
-        <v>0.002437008251489494</v>
+        <v>0.0007102177958064074</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.65960181620801</v>
+        <v>9.314842961575891</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.832411662877448</v>
+        <v>1.136694935255164</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1760950402325392</v>
+        <v>0.4008773654168749</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05810067492046755</v>
+        <v>0.04553696281656983</v>
       </c>
       <c r="E24">
-        <v>0.5936319562445931</v>
+        <v>2.282290205556947</v>
       </c>
       <c r="F24">
-        <v>2.023391035650263</v>
+        <v>3.632311426213192</v>
       </c>
       <c r="G24">
-        <v>0.002446347173128638</v>
+        <v>0.0007300376486732248</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.320114386335433</v>
+        <v>7.725411806505406</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.840685757462211</v>
+        <v>1.134514519961954</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565465185942259</v>
+        <v>0.327325109362377</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05802280047137032</v>
+        <v>0.0418898208585361</v>
       </c>
       <c r="E25">
-        <v>0.4867720553613708</v>
+        <v>1.783810182596127</v>
       </c>
       <c r="F25">
-        <v>1.890194602601071</v>
+        <v>2.957881513598124</v>
       </c>
       <c r="G25">
-        <v>0.00245711660854621</v>
+        <v>0.000751147744891488</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.958173624638732</v>
+        <v>6.130288973003417</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.852051513601197</v>
+        <v>1.147637564817401</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2745396222272376</v>
+        <v>3.35787145777914</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04017350230643757</v>
+        <v>0.209401164204948</v>
       </c>
       <c r="E2">
-        <v>1.446121442841203</v>
+        <v>0.3355090643560601</v>
       </c>
       <c r="F2">
-        <v>2.501867597490133</v>
+        <v>1.10608918467149</v>
       </c>
       <c r="G2">
-        <v>0.000766765009796444</v>
+        <v>1.261709521700425</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002299493101145522</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01407270487590262</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7297405507208339</v>
       </c>
       <c r="K2">
-        <v>5.023431146630571</v>
+        <v>0.3217429170849666</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.530037625046333</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.167421892901928</v>
+        <v>2.263425711505334</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2394084866251092</v>
+        <v>2.93148069793142</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.039449372040405</v>
+        <v>0.1869876148117697</v>
       </c>
       <c r="E3">
-        <v>1.229550544812369</v>
+        <v>0.2985738645643536</v>
       </c>
       <c r="F3">
-        <v>2.211206137741769</v>
+        <v>1.021285649209673</v>
       </c>
       <c r="G3">
-        <v>0.0007775097351905291</v>
+        <v>1.126307205064023</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001292619299625541</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01771950087970176</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6735651020072453</v>
       </c>
       <c r="K3">
-        <v>4.302357448471128</v>
+        <v>0.3434032237775284</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4710118738850326</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.185931527363437</v>
+        <v>1.972804597921169</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2180945464838402</v>
+        <v>2.669375909114478</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03917882760595148</v>
+        <v>0.1733595388688514</v>
       </c>
       <c r="E4">
-        <v>1.101082693881537</v>
+        <v>0.276087087186049</v>
       </c>
       <c r="F4">
-        <v>2.039959090781579</v>
+        <v>0.9710117207230837</v>
       </c>
       <c r="G4">
-        <v>0.0007842168526565398</v>
+        <v>1.045247862443048</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002406438807538325</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02026181331685173</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6402501820998197</v>
       </c>
       <c r="K4">
-        <v>3.870460435998666</v>
+        <v>0.3575723700921696</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4350677646762335</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.199486735602093</v>
+        <v>1.795507520985012</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2094655914393684</v>
+        <v>2.562472379387145</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03910699037718857</v>
+        <v>0.1679407426963309</v>
       </c>
       <c r="E5">
-        <v>1.049668535395824</v>
+        <v>0.2673238837286434</v>
       </c>
       <c r="F5">
-        <v>1.971751901633993</v>
+        <v>0.9495745857054487</v>
       </c>
       <c r="G5">
-        <v>0.0007869815963445451</v>
+        <v>1.011322062831837</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002968537312750041</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02145891621588136</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6262444654481101</v>
       </c>
       <c r="K5">
-        <v>3.696738599260186</v>
+        <v>0.3637226237962103</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4211945506072823</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.205518852449003</v>
+        <v>1.726067596812044</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2080359637349289</v>
+        <v>2.544717167894362</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03909723928547493</v>
+        <v>0.1671745886580709</v>
       </c>
       <c r="E6">
-        <v>1.041182653626237</v>
+        <v>0.2663127533182177</v>
       </c>
       <c r="F6">
-        <v>1.960514988393712</v>
+        <v>0.9443748860084042</v>
       </c>
       <c r="G6">
-        <v>0.0007874426906977483</v>
+        <v>1.004052237244224</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003068342454338235</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02177798623318328</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6230789757081254</v>
       </c>
       <c r="K6">
-        <v>3.668017856243921</v>
+        <v>0.3649663485854067</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4197660246148729</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.20655002831846</v>
+        <v>1.717682119781642</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2179779539444127</v>
+        <v>2.667938586508399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03917770979301238</v>
+        <v>0.1736487372069178</v>
       </c>
       <c r="E7">
-        <v>1.100385748024323</v>
+        <v>0.2771786682165285</v>
       </c>
       <c r="F7">
-        <v>2.039033132302805</v>
+        <v>0.9661772384130529</v>
       </c>
       <c r="G7">
-        <v>0.0007842540064540951</v>
+        <v>1.040243392753794</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002413834243513269</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02057698071051295</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6377245153406506</v>
       </c>
       <c r="K7">
-        <v>3.868108883817968</v>
+        <v>0.3582437260117448</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4372665052283509</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.199566081509133</v>
+        <v>1.803135010919249</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2623681254585222</v>
+        <v>3.210896420826089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03988421400311637</v>
+        <v>0.2021263941535665</v>
       </c>
       <c r="E8">
-        <v>1.370385307019589</v>
+        <v>0.324347072090454</v>
       </c>
       <c r="F8">
-        <v>2.399996091957675</v>
+        <v>1.070446164209031</v>
       </c>
       <c r="G8">
-        <v>0.0007704495189874735</v>
+        <v>1.208535945071901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0004955145535886496</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01562108376109705</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7070251134286138</v>
       </c>
       <c r="K8">
-        <v>4.772266428167768</v>
+        <v>0.3299023985669223</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5128057141192102</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.173322243661474</v>
+        <v>2.174377118759594</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3518569709693509</v>
+        <v>4.274351864694495</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04294193676705049</v>
+        <v>0.2587113341073604</v>
       </c>
       <c r="E9">
-        <v>1.946226574472291</v>
+        <v>0.4165665045843312</v>
       </c>
       <c r="F9">
-        <v>3.177704688753067</v>
+        <v>1.299278850595925</v>
       </c>
       <c r="G9">
-        <v>0.0007440428294064327</v>
+        <v>1.565940919795906</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007781668154287491</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008060727268257573</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8577117030448846</v>
       </c>
       <c r="K9">
-        <v>6.655090986614482</v>
+        <v>0.2803805773373949</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6595212315050532</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.141460038600698</v>
+        <v>2.897596688478814</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4197379885732317</v>
+        <v>5.056398379454208</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04671536532649156</v>
+        <v>0.3042272297967514</v>
       </c>
       <c r="E10">
-        <v>2.416009311348205</v>
+        <v>0.4945911405278878</v>
       </c>
       <c r="F10">
-        <v>3.812826242132388</v>
+        <v>1.451670773604917</v>
       </c>
       <c r="G10">
-        <v>0.0007246965455587166</v>
+        <v>1.815051301103068</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004069471511066958</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004583935324245836</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9620918532422422</v>
       </c>
       <c r="K10">
-        <v>8.145443166693042</v>
+        <v>0.2528718767722022</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7865868513697478</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.133709048855081</v>
+        <v>3.421464982195403</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4512549449444379</v>
+        <v>5.410851705467849</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04891730161563146</v>
+        <v>0.3479723240386647</v>
       </c>
       <c r="E11">
-        <v>2.645437258401685</v>
+        <v>0.6073844619265856</v>
       </c>
       <c r="F11">
-        <v>4.121701022152308</v>
+        <v>1.293840107643689</v>
       </c>
       <c r="G11">
-        <v>0.0007158058540160619</v>
+        <v>1.693883248272044</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02361742704838576</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004208870625316052</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8918455210392722</v>
       </c>
       <c r="K11">
-        <v>8.858330039025361</v>
+        <v>0.2885326595340061</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9973143162106624</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.134644072053518</v>
+        <v>3.493799113195962</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4632985488526771</v>
+        <v>5.544446282202045</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04983817291863346</v>
+        <v>0.376247527944173</v>
       </c>
       <c r="E12">
-        <v>2.735200198466629</v>
+        <v>0.692142311958257</v>
       </c>
       <c r="F12">
-        <v>4.242189710909173</v>
+        <v>1.141534326132344</v>
       </c>
       <c r="G12">
-        <v>0.0007124152763141267</v>
+        <v>1.54938127190286</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06246739934225332</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003982820147189869</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8154203731255052</v>
       </c>
       <c r="K12">
-        <v>9.134561352594574</v>
+        <v>0.3406616160554599</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.162172901463606</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.135753259620415</v>
+        <v>3.426834992169802</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.460699597311347</v>
+        <v>5.514362935604424</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04963564941668608</v>
+        <v>0.394394611376029</v>
       </c>
       <c r="E13">
-        <v>2.715728113678182</v>
+        <v>0.761054729273269</v>
       </c>
       <c r="F13">
-        <v>4.21607144109268</v>
+        <v>0.9774421871106966</v>
       </c>
       <c r="G13">
-        <v>0.0007131467623302523</v>
+        <v>1.371077413934529</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.11768666916754</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004201811758362872</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7259440005044269</v>
       </c>
       <c r="K13">
-        <v>9.074767551661807</v>
+        <v>0.4079414856729429</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.302994587021459</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.135478698720448</v>
+        <v>3.263045789061493</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4522434894556682</v>
+        <v>5.419127486458194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04899120203926799</v>
+        <v>0.4026987092283036</v>
       </c>
       <c r="E14">
-        <v>2.652760138132777</v>
+        <v>0.8030636153984148</v>
       </c>
       <c r="F14">
-        <v>4.131538753956107</v>
+        <v>0.8582704210555505</v>
       </c>
       <c r="G14">
-        <v>0.0007155274595448111</v>
+        <v>1.231762975957508</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1663969773901215</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00466364004746378</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6577131888923304</v>
       </c>
       <c r="K14">
-        <v>8.88092168592766</v>
+        <v>0.4642278682620926</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.392787853468633</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.134719447490767</v>
+        <v>3.108043355327766</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.447078611205157</v>
+        <v>5.361047155489132</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04860838702897752</v>
+        <v>0.402491590521322</v>
       </c>
       <c r="E15">
-        <v>2.614587338982176</v>
+        <v>0.8093940773546535</v>
       </c>
       <c r="F15">
-        <v>4.08024111108989</v>
+        <v>0.8248330254863561</v>
       </c>
       <c r="G15">
-        <v>0.0007169822278635506</v>
+        <v>1.189017449895459</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.178579142010264</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005017354342116143</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6375193404886943</v>
       </c>
       <c r="K15">
-        <v>8.763045286899285</v>
+        <v>0.4799427769333704</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.408301785920969</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.134356537625735</v>
+        <v>3.053708448223972</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4176925082528413</v>
+        <v>5.029140812586206</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0465826034851915</v>
+        <v>0.3783248045510419</v>
       </c>
       <c r="E16">
-        <v>2.401381564046545</v>
+        <v>0.7596233980491434</v>
       </c>
       <c r="F16">
-        <v>3.793094716884781</v>
+        <v>0.7913398459314323</v>
       </c>
       <c r="G16">
-        <v>0.0007252748862277481</v>
+        <v>1.116488673314763</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1641449525182566</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006440433354337749</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6097152452905163</v>
       </c>
       <c r="K16">
-        <v>8.099657706058565</v>
+        <v>0.4741746594098757</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.320916632624574</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.133746855818913</v>
+        <v>2.870506499926137</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3998396666499247</v>
+        <v>4.825917449318013</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04547508313753212</v>
+        <v>0.3555082998015422</v>
       </c>
       <c r="E17">
-        <v>2.275007287252691</v>
+        <v>0.6991382753836177</v>
       </c>
       <c r="F17">
-        <v>3.622471565060692</v>
+        <v>0.8280847845683041</v>
       </c>
       <c r="G17">
-        <v>0.000730332117325719</v>
+        <v>1.134328888035213</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1255321251370134</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007364436413902276</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6244440931375266</v>
       </c>
       <c r="K17">
-        <v>7.702439390481743</v>
+        <v>0.4393435940383625</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.20598155191206</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.13458865231641</v>
+        <v>2.812450661845105</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3896300123676042</v>
+        <v>4.709446888012565</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04488249648250076</v>
+        <v>0.3314180117664023</v>
       </c>
       <c r="E18">
-        <v>2.203754531785776</v>
+        <v>0.624454808098676</v>
       </c>
       <c r="F18">
-        <v>3.526165118817289</v>
+        <v>0.9358174847561571</v>
       </c>
       <c r="G18">
-        <v>0.0007332332174038713</v>
+        <v>1.237012475386507</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07242984292915366</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007511045757314427</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6798710908187502</v>
       </c>
       <c r="K18">
-        <v>7.47716672005788</v>
+        <v>0.3811388321059113</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.05888531673051</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.135484642936305</v>
+        <v>2.847198130817105</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3861828274480388</v>
+        <v>4.670652442014955</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04468903298658233</v>
+        <v>0.3097446317167396</v>
       </c>
       <c r="E19">
-        <v>2.179859520097892</v>
+        <v>0.5515835627891335</v>
       </c>
       <c r="F19">
-        <v>3.493854361545345</v>
+        <v>1.092774367066198</v>
       </c>
       <c r="G19">
-        <v>0.0007342144527333052</v>
+        <v>1.398351532746062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02741115418491091</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007530031899735334</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7625700024853757</v>
       </c>
       <c r="K19">
-        <v>7.401408660381662</v>
+        <v>0.3250914982711279</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9135203088256958</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.135855672745251</v>
+        <v>2.970002993344565</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.401733928886145</v>
+        <v>4.850877744276318</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04558827155595679</v>
+        <v>0.2934280672720178</v>
       </c>
       <c r="E20">
-        <v>2.288307595811759</v>
+        <v>0.4782052664946548</v>
       </c>
       <c r="F20">
-        <v>3.640440866376821</v>
+        <v>1.395565270761168</v>
       </c>
       <c r="G20">
-        <v>0.0007297946329586478</v>
+        <v>1.733146843301256</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002962392294634686</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006219609884003496</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9262658423615164</v>
       </c>
       <c r="K20">
-        <v>7.744384929457908</v>
+        <v>0.2627286764850183</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7613943401284615</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.134455676972948</v>
+        <v>3.309786276338343</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.454724148112831</v>
+        <v>5.452069989929669</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04917796844743805</v>
+        <v>0.3250355063930641</v>
       </c>
       <c r="E21">
-        <v>2.671171281404057</v>
+        <v>0.5258383220404212</v>
       </c>
       <c r="F21">
-        <v>4.156266402425928</v>
+        <v>1.561414020077891</v>
       </c>
       <c r="G21">
-        <v>0.0007148289391296351</v>
+        <v>1.975641322178603</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006587588839667924</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003972231023410266</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.032229460894484</v>
       </c>
       <c r="K21">
-        <v>8.937677050654088</v>
+        <v>0.2374940865767847</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8344596582468427</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.134920928281161</v>
+        <v>3.741655135578071</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4900009398543403</v>
+        <v>5.845694046421386</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05204317514802881</v>
+        <v>0.3468584731776616</v>
       </c>
       <c r="E22">
-        <v>2.938628163813689</v>
+        <v>0.55990263062602</v>
       </c>
       <c r="F22">
-        <v>4.514358638912199</v>
+        <v>1.665672152176739</v>
       </c>
       <c r="G22">
-        <v>0.0007049016963614322</v>
+        <v>2.130642664283243</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009718601226895138</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002640820405849453</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.099804984732941</v>
       </c>
       <c r="K22">
-        <v>9.754969875473819</v>
+        <v>0.2227128903948881</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8876658145698428</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.13969974120198</v>
+        <v>4.004380326782268</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4711075562956921</v>
+        <v>5.635541676798141</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05045943847846246</v>
+        <v>0.3347205770002546</v>
       </c>
       <c r="E23">
-        <v>2.794050675356502</v>
+        <v>0.5401810256200363</v>
       </c>
       <c r="F23">
-        <v>4.321059501176165</v>
+        <v>1.615000185050548</v>
       </c>
       <c r="G23">
-        <v>0.0007102177958064074</v>
+        <v>2.052838078320292</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007970459038681765</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002985670517804628</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.066246892950204</v>
       </c>
       <c r="K23">
-        <v>9.314842961575891</v>
+        <v>0.2293971730658964</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8562624393074572</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.136694935255164</v>
+        <v>3.853494497789313</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4008773654168749</v>
+        <v>4.841238910226309</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04553696281656983</v>
+        <v>0.2903483421617921</v>
       </c>
       <c r="E24">
-        <v>2.282290205556947</v>
+        <v>0.4689107623270559</v>
       </c>
       <c r="F24">
-        <v>3.632311426213192</v>
+        <v>1.421889713484745</v>
       </c>
       <c r="G24">
-        <v>0.0007300376486732248</v>
+        <v>1.758859700634048</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002889995519190558</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005688321612167258</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9394866810824283</v>
       </c>
       <c r="K24">
-        <v>7.725411806505406</v>
+        <v>0.2586697444204962</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7434539681579508</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.134514519961954</v>
+        <v>3.30321689976779</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.327325109362377</v>
+        <v>3.986609587323017</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0418898208585361</v>
+        <v>0.2438763222958045</v>
       </c>
       <c r="E25">
-        <v>1.783810182596127</v>
+        <v>0.3935966028634539</v>
       </c>
       <c r="F25">
-        <v>2.957881513598124</v>
+        <v>1.227159178634608</v>
       </c>
       <c r="G25">
-        <v>0.000751147744891488</v>
+        <v>1.458560274085869</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002129448502943276</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01028415977926844</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.8114174520881932</v>
       </c>
       <c r="K25">
-        <v>6.130288973003417</v>
+        <v>0.2943544723309834</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6238574381189892</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.147637564817401</v>
+        <v>2.716326112411792</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.35787145777914</v>
+        <v>3.361510888980433</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.209401164204948</v>
+        <v>0.1958368923156257</v>
       </c>
       <c r="E2">
-        <v>0.3355090643560601</v>
+        <v>0.3102286677890618</v>
       </c>
       <c r="F2">
-        <v>1.10608918467149</v>
+        <v>1.15563589801431</v>
       </c>
       <c r="G2">
-        <v>1.261709521700425</v>
+        <v>1.290585549230087</v>
       </c>
       <c r="H2">
-        <v>0.0002299493101145522</v>
+        <v>7.854604139145849E-05</v>
       </c>
       <c r="I2">
-        <v>0.01407270487590262</v>
+        <v>0.009700660804781158</v>
       </c>
       <c r="J2">
-        <v>0.7297405507208339</v>
+        <v>0.8148287450514431</v>
       </c>
       <c r="K2">
-        <v>0.3217429170849666</v>
+        <v>0.2862551956388408</v>
       </c>
       <c r="L2">
-        <v>0.530037625046333</v>
+        <v>0.1174454821206945</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09967763737242308</v>
       </c>
       <c r="N2">
-        <v>2.263425711505334</v>
+        <v>0.4872447839634617</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.17783550360852</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.93148069793142</v>
+        <v>2.933116434272165</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1869876148117697</v>
+        <v>0.1745384308061233</v>
       </c>
       <c r="E3">
-        <v>0.2985738645643536</v>
+        <v>0.2742695305814635</v>
       </c>
       <c r="F3">
-        <v>1.021285649209673</v>
+        <v>1.069194287682521</v>
       </c>
       <c r="G3">
-        <v>1.126307205064023</v>
+        <v>1.153911915687729</v>
       </c>
       <c r="H3">
-        <v>0.001292619299625541</v>
+        <v>0.0007922746578380435</v>
       </c>
       <c r="I3">
-        <v>0.01771950087970176</v>
+        <v>0.01225648910910015</v>
       </c>
       <c r="J3">
-        <v>0.6735651020072453</v>
+        <v>0.7544785696499048</v>
       </c>
       <c r="K3">
-        <v>0.3434032237775284</v>
+        <v>0.3044071925296032</v>
       </c>
       <c r="L3">
-        <v>0.4710118738850326</v>
+        <v>0.1216768074394168</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1106121003482894</v>
       </c>
       <c r="N3">
-        <v>1.972804597921169</v>
+        <v>0.4292861441746822</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.888677981953748</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669375909114478</v>
+        <v>2.669571486390851</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1733595388688514</v>
+        <v>0.1615870597677969</v>
       </c>
       <c r="E4">
-        <v>0.276087087186049</v>
+        <v>0.2524129222694782</v>
       </c>
       <c r="F4">
-        <v>0.9710117207230837</v>
+        <v>1.017476674148568</v>
       </c>
       <c r="G4">
-        <v>1.045247862443048</v>
+        <v>1.072024684257343</v>
       </c>
       <c r="H4">
-        <v>0.002406438807538325</v>
+        <v>0.001624925625230866</v>
       </c>
       <c r="I4">
-        <v>0.02026181331685173</v>
+        <v>0.01406026358764079</v>
       </c>
       <c r="J4">
-        <v>0.6402501820998197</v>
+        <v>0.7178544658175383</v>
       </c>
       <c r="K4">
-        <v>0.3575723700921696</v>
+        <v>0.3163135212202928</v>
       </c>
       <c r="L4">
-        <v>0.4350677646762335</v>
+        <v>0.1248525505266674</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1178383862950518</v>
       </c>
       <c r="N4">
-        <v>1.795507520985012</v>
+        <v>0.3940733231385565</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.712494662580866</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562472379387145</v>
+        <v>2.562030988898641</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1679407426963309</v>
+        <v>0.156426331562642</v>
       </c>
       <c r="E5">
-        <v>0.2673238837286434</v>
+        <v>0.2438500854846239</v>
       </c>
       <c r="F5">
-        <v>0.9495745857054487</v>
+        <v>0.9955213759788677</v>
       </c>
       <c r="G5">
-        <v>1.011322062831837</v>
+        <v>1.037934513355864</v>
       </c>
       <c r="H5">
-        <v>0.002968537312750041</v>
+        <v>0.002057057653181982</v>
       </c>
       <c r="I5">
-        <v>0.02145891621588136</v>
+        <v>0.01495178792167717</v>
       </c>
       <c r="J5">
-        <v>0.6262444654481101</v>
+        <v>0.7024058422550183</v>
       </c>
       <c r="K5">
-        <v>0.3637226237962103</v>
+        <v>0.3213877382112944</v>
       </c>
       <c r="L5">
-        <v>0.4211945506072823</v>
+        <v>0.1262081817118262</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1210180138717138</v>
       </c>
       <c r="N5">
-        <v>1.726067596812044</v>
+        <v>0.3803842230800285</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.643130648644387</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544717167894362</v>
+        <v>2.544163613823628</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1671745886580709</v>
+        <v>0.1556821806622963</v>
       </c>
       <c r="E6">
-        <v>0.2663127533182177</v>
+        <v>0.2427925619557243</v>
       </c>
       <c r="F6">
-        <v>0.9443748860084042</v>
+        <v>0.9904429294819437</v>
       </c>
       <c r="G6">
-        <v>1.004052237244224</v>
+        <v>1.03086445295277</v>
       </c>
       <c r="H6">
-        <v>0.003068342454338235</v>
+        <v>0.002134679869053802</v>
       </c>
       <c r="I6">
-        <v>0.02177798623318328</v>
+        <v>0.0152349228725166</v>
       </c>
       <c r="J6">
-        <v>0.6230789757081254</v>
+        <v>0.6990901034470198</v>
       </c>
       <c r="K6">
-        <v>0.3649663485854067</v>
+        <v>0.3222930249560045</v>
       </c>
       <c r="L6">
-        <v>0.4197660246148729</v>
+        <v>0.126344225188752</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1216889149642757</v>
       </c>
       <c r="N6">
-        <v>1.717682119781642</v>
+        <v>0.3788225704496284</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.634226394878937</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667938586508399</v>
+        <v>2.668112901348877</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1736487372069178</v>
+        <v>0.1612684517311749</v>
       </c>
       <c r="E7">
-        <v>0.2771786682165285</v>
+        <v>0.2527951736278666</v>
       </c>
       <c r="F7">
-        <v>0.9661772384130529</v>
+        <v>1.010330961738347</v>
       </c>
       <c r="G7">
-        <v>1.040243392753794</v>
+        <v>1.071453641712438</v>
       </c>
       <c r="H7">
-        <v>0.002413834243513269</v>
+        <v>0.001637360902225327</v>
       </c>
       <c r="I7">
-        <v>0.02057698071051295</v>
+        <v>0.01442104965028435</v>
       </c>
       <c r="J7">
-        <v>0.6377245153406506</v>
+        <v>0.7053572692905448</v>
       </c>
       <c r="K7">
-        <v>0.3582437260117448</v>
+        <v>0.3166307579768111</v>
       </c>
       <c r="L7">
-        <v>0.4372665052283509</v>
+        <v>0.1246053545184821</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1183282989595682</v>
       </c>
       <c r="N7">
-        <v>1.803135010919249</v>
+        <v>0.3953535387118876</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.716782929021747</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210896420826089</v>
+        <v>3.213856044878753</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2021263941535665</v>
+        <v>0.1870083582955431</v>
       </c>
       <c r="E8">
-        <v>0.324347072090454</v>
+        <v>0.2974479324168229</v>
       </c>
       <c r="F8">
-        <v>1.070446164209031</v>
+        <v>1.110692357925714</v>
       </c>
       <c r="G8">
-        <v>1.208535945071901</v>
+        <v>1.250608881966144</v>
       </c>
       <c r="H8">
-        <v>0.0004955145535886496</v>
+        <v>0.0002461753946356726</v>
       </c>
       <c r="I8">
-        <v>0.01562108376109705</v>
+        <v>0.01096418435029634</v>
       </c>
       <c r="J8">
-        <v>0.7070251134286138</v>
+        <v>0.7573200085523695</v>
       </c>
       <c r="K8">
-        <v>0.3299023985669223</v>
+        <v>0.2930782672563286</v>
       </c>
       <c r="L8">
-        <v>0.5128057141192102</v>
+        <v>0.118648199352688</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.104008971868387</v>
       </c>
       <c r="N8">
-        <v>2.174377118759594</v>
+        <v>0.4681892982133888</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.080977024354155</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.274351864694495</v>
+        <v>4.280846332490114</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2587113341073604</v>
+        <v>0.2401985843423802</v>
       </c>
       <c r="E9">
-        <v>0.4165665045843312</v>
+        <v>0.3870865638811054</v>
       </c>
       <c r="F9">
-        <v>1.299278850595925</v>
+        <v>1.337470822812577</v>
       </c>
       <c r="G9">
-        <v>1.565940919795906</v>
+        <v>1.613985214003861</v>
       </c>
       <c r="H9">
-        <v>0.0007781668154287491</v>
+        <v>0.0009451323106285381</v>
       </c>
       <c r="I9">
-        <v>0.008060727268257573</v>
+        <v>0.005646053052587696</v>
       </c>
       <c r="J9">
-        <v>0.8577117030448846</v>
+        <v>0.9035779183789998</v>
       </c>
       <c r="K9">
-        <v>0.2803805773373949</v>
+        <v>0.2523615822532204</v>
       </c>
       <c r="L9">
-        <v>0.6595212315050532</v>
+        <v>0.111825277515555</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07931678143884646</v>
       </c>
       <c r="N9">
-        <v>2.897596688478814</v>
+        <v>0.6126247720504239</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.801269265823805</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.056398379454208</v>
+        <v>5.063735110348603</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3042272297967514</v>
+        <v>0.279289165371523</v>
       </c>
       <c r="E10">
-        <v>0.4945911405278878</v>
+        <v>0.4589116014268484</v>
       </c>
       <c r="F10">
-        <v>1.451670773604917</v>
+        <v>1.47225436186325</v>
       </c>
       <c r="G10">
-        <v>1.815051301103068</v>
+        <v>1.893995892535401</v>
       </c>
       <c r="H10">
-        <v>0.004069471511066958</v>
+        <v>0.004039799749867345</v>
       </c>
       <c r="I10">
-        <v>0.004583935324245836</v>
+        <v>0.003407266049126001</v>
       </c>
       <c r="J10">
-        <v>0.9620918532422422</v>
+        <v>0.9429569417534935</v>
       </c>
       <c r="K10">
-        <v>0.2528718767722022</v>
+        <v>0.2302925898979673</v>
       </c>
       <c r="L10">
-        <v>0.7865868513697478</v>
+        <v>0.1111227591672854</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06524607258043513</v>
       </c>
       <c r="N10">
-        <v>3.421464982195403</v>
+        <v>0.7327683011517365</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3.304688255074495</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.410851705467849</v>
+        <v>5.41772602602498</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3479723240386647</v>
+        <v>0.310430409579709</v>
       </c>
       <c r="E11">
-        <v>0.6073844619265856</v>
+        <v>0.5509896709548485</v>
       </c>
       <c r="F11">
-        <v>1.293840107643689</v>
+        <v>1.307947978775601</v>
       </c>
       <c r="G11">
-        <v>1.693883248272044</v>
+        <v>1.85219782409095</v>
       </c>
       <c r="H11">
-        <v>0.02361742704838576</v>
+        <v>0.0232909747209078</v>
       </c>
       <c r="I11">
-        <v>0.004208870625316052</v>
+        <v>0.003515544199625964</v>
       </c>
       <c r="J11">
-        <v>0.8918455210392722</v>
+        <v>0.7703133993883284</v>
       </c>
       <c r="K11">
-        <v>0.2885326595340061</v>
+        <v>0.2553076085820329</v>
       </c>
       <c r="L11">
-        <v>0.9973143162106624</v>
+        <v>0.1255504981475326</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07064226210510505</v>
       </c>
       <c r="N11">
-        <v>3.493799113195962</v>
+        <v>0.9106587891484992</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3.289895539810971</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.544446282202045</v>
+        <v>5.550977953578808</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.376247527944173</v>
+        <v>0.3308715542884642</v>
       </c>
       <c r="E12">
-        <v>0.692142311958257</v>
+        <v>0.6194379541598281</v>
       </c>
       <c r="F12">
-        <v>1.141534326132344</v>
+        <v>1.162778180312074</v>
       </c>
       <c r="G12">
-        <v>1.54938127190286</v>
+        <v>1.749175754974146</v>
       </c>
       <c r="H12">
-        <v>0.06246739934225332</v>
+        <v>0.06199721961633031</v>
       </c>
       <c r="I12">
-        <v>0.003982820147189869</v>
+        <v>0.003401797392792005</v>
       </c>
       <c r="J12">
-        <v>0.8154203731255052</v>
+        <v>0.661866271247959</v>
       </c>
       <c r="K12">
-        <v>0.3406616160554599</v>
+        <v>0.2909842871119181</v>
       </c>
       <c r="L12">
-        <v>1.162172901463606</v>
+        <v>0.1417906810112335</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08150743894598023</v>
       </c>
       <c r="N12">
-        <v>3.426834992169802</v>
+        <v>1.047142716111637</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3.164615444550691</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.514362935604424</v>
+        <v>5.52079762170365</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.394394611376029</v>
+        <v>0.3465214899616171</v>
       </c>
       <c r="E13">
-        <v>0.761054729273269</v>
+        <v>0.6765453370808814</v>
       </c>
       <c r="F13">
-        <v>0.9774421871106966</v>
+        <v>1.02187805191808</v>
       </c>
       <c r="G13">
-        <v>1.371077413934529</v>
+        <v>1.578098458274354</v>
       </c>
       <c r="H13">
-        <v>0.11768666916754</v>
+        <v>0.1172331122735528</v>
       </c>
       <c r="I13">
-        <v>0.004201811758362872</v>
+        <v>0.003552198768614012</v>
       </c>
       <c r="J13">
-        <v>0.7259440005044269</v>
+        <v>0.6048592087785636</v>
       </c>
       <c r="K13">
-        <v>0.4079414856729429</v>
+        <v>0.3334212755025341</v>
       </c>
       <c r="L13">
-        <v>1.302994587021459</v>
+        <v>0.1579877111492038</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0967975688180438</v>
       </c>
       <c r="N13">
-        <v>3.263045789061493</v>
+        <v>1.163109619224485</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.964129265454801</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.419127486458194</v>
+        <v>5.425579509273575</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4026987092283036</v>
+        <v>0.3556082397871165</v>
       </c>
       <c r="E14">
-        <v>0.8030636153984148</v>
+        <v>0.7123215623952888</v>
       </c>
       <c r="F14">
-        <v>0.8582704210555505</v>
+        <v>0.9240570567365012</v>
       </c>
       <c r="G14">
-        <v>1.231762975957508</v>
+        <v>1.429879697452265</v>
       </c>
       <c r="H14">
-        <v>0.1663969773901215</v>
+        <v>0.1660189417718811</v>
       </c>
       <c r="I14">
-        <v>0.00466364004746378</v>
+        <v>0.003896823614287115</v>
       </c>
       <c r="J14">
-        <v>0.6577131888923304</v>
+        <v>0.5837850467053585</v>
       </c>
       <c r="K14">
-        <v>0.4642278682620926</v>
+        <v>0.366731257246478</v>
       </c>
       <c r="L14">
-        <v>1.392787853468633</v>
+        <v>0.169167651540814</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1100565704758196</v>
       </c>
       <c r="N14">
-        <v>3.108043355327766</v>
+        <v>1.236766065528087</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.792583657296404</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.361047155489132</v>
+        <v>5.367532808231601</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.402491590521322</v>
+        <v>0.3567367690220209</v>
       </c>
       <c r="E15">
-        <v>0.8093940773546535</v>
+        <v>0.7182469742055844</v>
       </c>
       <c r="F15">
-        <v>0.8248330254863561</v>
+        <v>0.8984421608483899</v>
       </c>
       <c r="G15">
-        <v>1.189017449895459</v>
+        <v>1.379552584838791</v>
       </c>
       <c r="H15">
-        <v>0.178579142010264</v>
+        <v>0.1782495158040405</v>
       </c>
       <c r="I15">
-        <v>0.005017354342116143</v>
+        <v>0.004200188012092099</v>
       </c>
       <c r="J15">
-        <v>0.6375193404886943</v>
+        <v>0.5857616615856927</v>
       </c>
       <c r="K15">
-        <v>0.4799427769333704</v>
+        <v>0.3753284812512234</v>
       </c>
       <c r="L15">
-        <v>1.408301785920969</v>
+        <v>0.1713777091793887</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1140257999387764</v>
       </c>
       <c r="N15">
-        <v>3.053708448223972</v>
+        <v>1.249414497207795</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.737535615884269</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.029140812586206</v>
+        <v>5.035809407900388</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3783248045510419</v>
+        <v>0.3425525735153911</v>
       </c>
       <c r="E16">
-        <v>0.7596233980491434</v>
+        <v>0.6801942122009876</v>
       </c>
       <c r="F16">
-        <v>0.7913398459314323</v>
+        <v>0.8873960881843175</v>
       </c>
       <c r="G16">
-        <v>1.116488673314763</v>
+        <v>1.261311306210274</v>
       </c>
       <c r="H16">
-        <v>0.1641449525182566</v>
+        <v>0.1640649925587923</v>
       </c>
       <c r="I16">
-        <v>0.006440433354337749</v>
+        <v>0.005187250526015319</v>
       </c>
       <c r="J16">
-        <v>0.6097152452905163</v>
+        <v>0.649721875146696</v>
       </c>
       <c r="K16">
-        <v>0.4741746594098757</v>
+        <v>0.3664205984170579</v>
       </c>
       <c r="L16">
-        <v>1.320916632624574</v>
+        <v>0.1618853038613146</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.115684051370291</v>
       </c>
       <c r="N16">
-        <v>2.870506499926137</v>
+        <v>1.176482133223004</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.587989026790467</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.825917449318013</v>
+        <v>4.832591741272893</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3555082998015422</v>
+        <v>0.3255401595548051</v>
       </c>
       <c r="E17">
-        <v>0.6991382753836177</v>
+        <v>0.6305823303551392</v>
       </c>
       <c r="F17">
-        <v>0.8280847845683041</v>
+        <v>0.9281720690904081</v>
       </c>
       <c r="G17">
-        <v>1.134328888035213</v>
+        <v>1.253456652660844</v>
       </c>
       <c r="H17">
-        <v>0.1255321251370134</v>
+        <v>0.1255536105490904</v>
       </c>
       <c r="I17">
-        <v>0.007364436413902276</v>
+        <v>0.005823422111441268</v>
       </c>
       <c r="J17">
-        <v>0.6244440931375266</v>
+        <v>0.7014385264536429</v>
       </c>
       <c r="K17">
-        <v>0.4393435940383625</v>
+        <v>0.3437677727965109</v>
       </c>
       <c r="L17">
-        <v>1.20598155191206</v>
+        <v>0.1500078468166564</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1100796972130986</v>
       </c>
       <c r="N17">
-        <v>2.812450661845105</v>
+        <v>1.079964950333249</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.5614435710674</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.709446888012565</v>
+        <v>4.716176184994026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3314180117664023</v>
+        <v>0.3058133886893017</v>
       </c>
       <c r="E18">
-        <v>0.624454808098676</v>
+        <v>0.5683126603877113</v>
       </c>
       <c r="F18">
-        <v>0.9358174847561571</v>
+        <v>1.02866670534361</v>
       </c>
       <c r="G18">
-        <v>1.237012475386507</v>
+        <v>1.334684146195201</v>
       </c>
       <c r="H18">
-        <v>0.07242984292915366</v>
+        <v>0.07250179760499975</v>
       </c>
       <c r="I18">
-        <v>0.007511045757314427</v>
+        <v>0.005765550435993028</v>
       </c>
       <c r="J18">
-        <v>0.6798710908187502</v>
+        <v>0.7678049154162636</v>
       </c>
       <c r="K18">
-        <v>0.3811388321059113</v>
+        <v>0.3086566799654236</v>
       </c>
       <c r="L18">
-        <v>1.05888531673051</v>
+        <v>0.1355040615664258</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09812998246765403</v>
       </c>
       <c r="N18">
-        <v>2.847198130817105</v>
+        <v>0.9570955672601826</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.635850557744988</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.670652442014955</v>
+        <v>4.677528735109661</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3097446317167396</v>
+        <v>0.2873690096859036</v>
       </c>
       <c r="E19">
-        <v>0.5515835627891335</v>
+        <v>0.5071390662467579</v>
       </c>
       <c r="F19">
-        <v>1.092774367066198</v>
+        <v>1.170487262171335</v>
       </c>
       <c r="G19">
-        <v>1.398351532746062</v>
+        <v>1.475539905587596</v>
       </c>
       <c r="H19">
-        <v>0.02741115418491091</v>
+        <v>0.02751521742693797</v>
       </c>
       <c r="I19">
-        <v>0.007530031899735334</v>
+        <v>0.005800001705017266</v>
       </c>
       <c r="J19">
-        <v>0.7625700024853757</v>
+        <v>0.8466193632375791</v>
       </c>
       <c r="K19">
-        <v>0.3250914982711279</v>
+        <v>0.2754338075821607</v>
       </c>
       <c r="L19">
-        <v>0.9135203088256958</v>
+        <v>0.1231953805951811</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08563153867035744</v>
       </c>
       <c r="N19">
-        <v>2.970002993344565</v>
+        <v>0.8356944962473278</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.802070433718541</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.850877744276318</v>
+        <v>4.858169234501815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2934280672720178</v>
+        <v>0.2720971856843875</v>
       </c>
       <c r="E20">
-        <v>0.4782052664946548</v>
+        <v>0.4453355982040961</v>
       </c>
       <c r="F20">
-        <v>1.395565270761168</v>
+        <v>1.433628872443094</v>
       </c>
       <c r="G20">
-        <v>1.733146843301256</v>
+        <v>1.791927576811986</v>
       </c>
       <c r="H20">
-        <v>0.002962392294634686</v>
+        <v>0.003044754592596899</v>
       </c>
       <c r="I20">
-        <v>0.006219609884003496</v>
+        <v>0.00489670221795091</v>
       </c>
       <c r="J20">
-        <v>0.9262658423615164</v>
+        <v>0.9619108090672341</v>
       </c>
       <c r="K20">
-        <v>0.2627286764850183</v>
+        <v>0.2370912282633117</v>
       </c>
       <c r="L20">
-        <v>0.7613943401284615</v>
+        <v>0.1115610017679671</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06926385826479198</v>
       </c>
       <c r="N20">
-        <v>3.309786276338343</v>
+        <v>0.709759745082593</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>3.20073354868407</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.452069989929669</v>
+        <v>5.458946962524521</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3250355063930641</v>
+        <v>0.2882567185254459</v>
       </c>
       <c r="E21">
-        <v>0.5258383220404212</v>
+        <v>0.4801434697683788</v>
       </c>
       <c r="F21">
-        <v>1.561414020077891</v>
+        <v>1.5237257369796</v>
       </c>
       <c r="G21">
-        <v>1.975641322178603</v>
+        <v>2.129601135640314</v>
       </c>
       <c r="H21">
-        <v>0.006587588839667924</v>
+        <v>0.006151219779594819</v>
       </c>
       <c r="I21">
-        <v>0.003972231023410266</v>
+        <v>0.003464292742678232</v>
       </c>
       <c r="J21">
-        <v>1.032229460894484</v>
+        <v>0.8303225004235628</v>
       </c>
       <c r="K21">
-        <v>0.2374940865767847</v>
+        <v>0.2217397468066178</v>
       </c>
       <c r="L21">
-        <v>0.8344596582468427</v>
+        <v>0.1123752016477404</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05910826701713923</v>
       </c>
       <c r="N21">
-        <v>3.741655135578071</v>
+        <v>0.7718069363132543</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3.589384104870533</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.845694046421386</v>
+        <v>5.851734587328565</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3468584731776616</v>
+        <v>0.2990067414239803</v>
       </c>
       <c r="E22">
-        <v>0.55990263062602</v>
+        <v>0.5046067468076032</v>
       </c>
       <c r="F22">
-        <v>1.665672152176739</v>
+        <v>1.573415697706224</v>
       </c>
       <c r="G22">
-        <v>2.130642664283243</v>
+        <v>2.357055021352664</v>
       </c>
       <c r="H22">
-        <v>0.009718601226895138</v>
+        <v>0.008750470800453491</v>
       </c>
       <c r="I22">
-        <v>0.002640820405849453</v>
+        <v>0.002459147345406976</v>
       </c>
       <c r="J22">
-        <v>1.099804984732941</v>
+        <v>0.7376604096614301</v>
       </c>
       <c r="K22">
-        <v>0.2227128903948881</v>
+        <v>0.2135951606244735</v>
       </c>
       <c r="L22">
-        <v>0.8876658145698428</v>
+        <v>0.1139898956833445</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05326019345474808</v>
       </c>
       <c r="N22">
-        <v>4.004380326782268</v>
+        <v>0.8162978910442433</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>3.818439290254616</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.635541676798141</v>
+        <v>5.6421534552004</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3347205770002546</v>
+        <v>0.2943620423520628</v>
       </c>
       <c r="E23">
-        <v>0.5401810256200363</v>
+        <v>0.4916708855114322</v>
       </c>
       <c r="F23">
-        <v>1.615000185050548</v>
+        <v>1.558822105216166</v>
       </c>
       <c r="G23">
-        <v>2.052838078320292</v>
+        <v>2.228590800404277</v>
       </c>
       <c r="H23">
-        <v>0.007970459038681765</v>
+        <v>0.007331935000117112</v>
       </c>
       <c r="I23">
-        <v>0.002985670517804628</v>
+        <v>0.002575519013161554</v>
       </c>
       <c r="J23">
-        <v>1.066246892950204</v>
+        <v>0.8115587346456437</v>
       </c>
       <c r="K23">
-        <v>0.2293971730658964</v>
+        <v>0.2163704182780375</v>
       </c>
       <c r="L23">
-        <v>0.8562624393074572</v>
+        <v>0.1123913996062988</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05590800636360616</v>
       </c>
       <c r="N23">
-        <v>3.853494497789313</v>
+        <v>0.7914113375029217</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3.69280183960592</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.841238910226309</v>
+        <v>4.848560097072379</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2903483421617921</v>
+        <v>0.2695146119500293</v>
       </c>
       <c r="E24">
-        <v>0.4689107623270559</v>
+        <v>0.4374478792741883</v>
       </c>
       <c r="F24">
-        <v>1.421889713484745</v>
+        <v>1.456820602286868</v>
       </c>
       <c r="G24">
-        <v>1.758859700634048</v>
+        <v>1.813122740483493</v>
       </c>
       <c r="H24">
-        <v>0.002889995519190558</v>
+        <v>0.002980469427042776</v>
       </c>
       <c r="I24">
-        <v>0.005688321612167258</v>
+        <v>0.004261851449106402</v>
       </c>
       <c r="J24">
-        <v>0.9394866810824283</v>
+        <v>0.9751903976005281</v>
       </c>
       <c r="K24">
-        <v>0.2586697444204962</v>
+        <v>0.2345107196304159</v>
       </c>
       <c r="L24">
-        <v>0.7434539681579508</v>
+        <v>0.1105024461873683</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06838863017766084</v>
       </c>
       <c r="N24">
-        <v>3.30321689976779</v>
+        <v>0.6945166757759154</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3.202262063483374</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.986609587323017</v>
+        <v>3.992401790115025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2438763222958045</v>
+        <v>0.2270151647990986</v>
       </c>
       <c r="E25">
-        <v>0.3935966028634539</v>
+        <v>0.3651494273089355</v>
       </c>
       <c r="F25">
-        <v>1.227159178634608</v>
+        <v>1.271664446838642</v>
       </c>
       <c r="G25">
-        <v>1.458560274085869</v>
+        <v>1.500634966140581</v>
       </c>
       <c r="H25">
-        <v>0.0002129448502943276</v>
+        <v>0.0003428793251620821</v>
       </c>
       <c r="I25">
-        <v>0.01028415977926844</v>
+        <v>0.007408468295104775</v>
       </c>
       <c r="J25">
-        <v>0.8114174520881932</v>
+        <v>0.8744176359771814</v>
       </c>
       <c r="K25">
-        <v>0.2943544723309834</v>
+        <v>0.2632853244359463</v>
       </c>
       <c r="L25">
-        <v>0.6238574381189892</v>
+        <v>0.1132966209878772</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08585453370976381</v>
       </c>
       <c r="N25">
-        <v>2.716326112411792</v>
+        <v>0.5774541946519918</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.620830633729895</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
